--- a/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
+++ b/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Data</t>
   </si>
@@ -28,274 +28,289 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>06.06.20246</t>
-  </si>
-  <si>
-    <t>06.06.20247</t>
-  </si>
-  <si>
-    <t>06.06.20248</t>
-  </si>
-  <si>
-    <t>06.06.20249</t>
-  </si>
-  <si>
-    <t>06.06.202410</t>
-  </si>
-  <si>
-    <t>06.06.202411</t>
-  </si>
-  <si>
-    <t>06.06.202412</t>
-  </si>
-  <si>
-    <t>06.06.202413</t>
-  </si>
-  <si>
-    <t>06.06.202414</t>
-  </si>
-  <si>
-    <t>06.06.202415</t>
-  </si>
-  <si>
-    <t>06.06.202416</t>
-  </si>
-  <si>
-    <t>06.06.202417</t>
-  </si>
-  <si>
-    <t>06.06.202419</t>
-  </si>
-  <si>
-    <t>06.06.202420</t>
-  </si>
-  <si>
-    <t>06.06.202421</t>
-  </si>
-  <si>
-    <t>06.06.202422</t>
-  </si>
-  <si>
-    <t>06.06.202423</t>
-  </si>
-  <si>
-    <t>06.06.202424</t>
-  </si>
-  <si>
-    <t>06.06.202425</t>
-  </si>
-  <si>
-    <t>06.06.202426</t>
-  </si>
-  <si>
-    <t>06.06.202427</t>
-  </si>
-  <si>
-    <t>06.06.202428</t>
-  </si>
-  <si>
-    <t>06.06.202429</t>
-  </si>
-  <si>
-    <t>06.06.202430</t>
-  </si>
-  <si>
-    <t>06.06.202431</t>
-  </si>
-  <si>
-    <t>06.06.202432</t>
-  </si>
-  <si>
-    <t>06.06.202433</t>
-  </si>
-  <si>
-    <t>06.06.202434</t>
-  </si>
-  <si>
-    <t>06.06.202435</t>
-  </si>
-  <si>
-    <t>06.06.202436</t>
-  </si>
-  <si>
-    <t>06.06.202437</t>
-  </si>
-  <si>
-    <t>06.06.202438</t>
-  </si>
-  <si>
-    <t>06.06.202439</t>
-  </si>
-  <si>
-    <t>06.06.202440</t>
-  </si>
-  <si>
-    <t>06.06.202441</t>
-  </si>
-  <si>
-    <t>06.06.202442</t>
-  </si>
-  <si>
-    <t>06.06.202443</t>
-  </si>
-  <si>
-    <t>06.06.202444</t>
-  </si>
-  <si>
-    <t>06.06.202445</t>
-  </si>
-  <si>
-    <t>06.06.202446</t>
-  </si>
-  <si>
-    <t>06.06.202447</t>
-  </si>
-  <si>
-    <t>06.06.202448</t>
-  </si>
-  <si>
-    <t>06.06.202449</t>
-  </si>
-  <si>
-    <t>06.06.202450</t>
-  </si>
-  <si>
-    <t>06.06.202451</t>
-  </si>
-  <si>
-    <t>06.06.202452</t>
-  </si>
-  <si>
-    <t>06.06.202453</t>
-  </si>
-  <si>
-    <t>06.06.202454</t>
-  </si>
-  <si>
-    <t>06.06.202455</t>
-  </si>
-  <si>
-    <t>06.06.202456</t>
-  </si>
-  <si>
-    <t>06.06.202457</t>
-  </si>
-  <si>
-    <t>06.06.202458</t>
-  </si>
-  <si>
-    <t>06.06.202459</t>
-  </si>
-  <si>
-    <t>06.06.202460</t>
-  </si>
-  <si>
-    <t>06.06.202461</t>
-  </si>
-  <si>
-    <t>06.06.202462</t>
-  </si>
-  <si>
-    <t>06.06.202463</t>
-  </si>
-  <si>
-    <t>06.06.202464</t>
-  </si>
-  <si>
-    <t>06.06.202465</t>
-  </si>
-  <si>
-    <t>06.06.202466</t>
-  </si>
-  <si>
-    <t>06.06.202467</t>
-  </si>
-  <si>
-    <t>06.06.202468</t>
-  </si>
-  <si>
-    <t>06.06.202469</t>
-  </si>
-  <si>
-    <t>06.06.202470</t>
-  </si>
-  <si>
-    <t>06.06.202471</t>
-  </si>
-  <si>
-    <t>06.06.202472</t>
-  </si>
-  <si>
-    <t>06.06.202473</t>
-  </si>
-  <si>
-    <t>06.06.202474</t>
-  </si>
-  <si>
-    <t>06.06.202475</t>
-  </si>
-  <si>
-    <t>06.06.202476</t>
-  </si>
-  <si>
-    <t>06.06.202477</t>
-  </si>
-  <si>
-    <t>06.06.202478</t>
-  </si>
-  <si>
-    <t>06.06.202479</t>
-  </si>
-  <si>
-    <t>06.06.202480</t>
-  </si>
-  <si>
-    <t>06.06.202481</t>
-  </si>
-  <si>
-    <t>06.06.202482</t>
-  </si>
-  <si>
-    <t>06.06.202483</t>
-  </si>
-  <si>
-    <t>06.06.202484</t>
-  </si>
-  <si>
-    <t>06.06.202485</t>
-  </si>
-  <si>
-    <t>06.06.202486</t>
-  </si>
-  <si>
-    <t>06.06.202487</t>
-  </si>
-  <si>
-    <t>06.06.202488</t>
-  </si>
-  <si>
-    <t>06.06.202489</t>
-  </si>
-  <si>
-    <t>06.06.202490</t>
-  </si>
-  <si>
-    <t>06.06.202491</t>
-  </si>
-  <si>
-    <t>06.06.202492</t>
-  </si>
-  <si>
-    <t>06.06.202493</t>
-  </si>
-  <si>
-    <t>06.06.202494</t>
-  </si>
-  <si>
-    <t>06.06.202495</t>
-  </si>
-  <si>
-    <t>06.06.202496</t>
+    <t>19.06.20241</t>
+  </si>
+  <si>
+    <t>19.06.20242</t>
+  </si>
+  <si>
+    <t>19.06.20243</t>
+  </si>
+  <si>
+    <t>19.06.20244</t>
+  </si>
+  <si>
+    <t>19.06.20245</t>
+  </si>
+  <si>
+    <t>19.06.20246</t>
+  </si>
+  <si>
+    <t>19.06.20247</t>
+  </si>
+  <si>
+    <t>19.06.20248</t>
+  </si>
+  <si>
+    <t>19.06.20249</t>
+  </si>
+  <si>
+    <t>19.06.202410</t>
+  </si>
+  <si>
+    <t>19.06.202411</t>
+  </si>
+  <si>
+    <t>19.06.202412</t>
+  </si>
+  <si>
+    <t>19.06.202414</t>
+  </si>
+  <si>
+    <t>19.06.202415</t>
+  </si>
+  <si>
+    <t>19.06.202416</t>
+  </si>
+  <si>
+    <t>19.06.202417</t>
+  </si>
+  <si>
+    <t>19.06.202418</t>
+  </si>
+  <si>
+    <t>19.06.202419</t>
+  </si>
+  <si>
+    <t>19.06.202420</t>
+  </si>
+  <si>
+    <t>19.06.202421</t>
+  </si>
+  <si>
+    <t>19.06.202422</t>
+  </si>
+  <si>
+    <t>19.06.202423</t>
+  </si>
+  <si>
+    <t>19.06.202424</t>
+  </si>
+  <si>
+    <t>19.06.202425</t>
+  </si>
+  <si>
+    <t>19.06.202426</t>
+  </si>
+  <si>
+    <t>19.06.202427</t>
+  </si>
+  <si>
+    <t>19.06.202428</t>
+  </si>
+  <si>
+    <t>19.06.202429</t>
+  </si>
+  <si>
+    <t>19.06.202430</t>
+  </si>
+  <si>
+    <t>19.06.202431</t>
+  </si>
+  <si>
+    <t>19.06.202432</t>
+  </si>
+  <si>
+    <t>19.06.202433</t>
+  </si>
+  <si>
+    <t>19.06.202434</t>
+  </si>
+  <si>
+    <t>19.06.202435</t>
+  </si>
+  <si>
+    <t>19.06.202436</t>
+  </si>
+  <si>
+    <t>19.06.202437</t>
+  </si>
+  <si>
+    <t>19.06.202438</t>
+  </si>
+  <si>
+    <t>19.06.202439</t>
+  </si>
+  <si>
+    <t>19.06.202440</t>
+  </si>
+  <si>
+    <t>19.06.202441</t>
+  </si>
+  <si>
+    <t>19.06.202442</t>
+  </si>
+  <si>
+    <t>19.06.202443</t>
+  </si>
+  <si>
+    <t>19.06.202444</t>
+  </si>
+  <si>
+    <t>19.06.202445</t>
+  </si>
+  <si>
+    <t>19.06.202446</t>
+  </si>
+  <si>
+    <t>19.06.202447</t>
+  </si>
+  <si>
+    <t>19.06.202448</t>
+  </si>
+  <si>
+    <t>19.06.202449</t>
+  </si>
+  <si>
+    <t>19.06.202450</t>
+  </si>
+  <si>
+    <t>19.06.202451</t>
+  </si>
+  <si>
+    <t>19.06.202452</t>
+  </si>
+  <si>
+    <t>19.06.202453</t>
+  </si>
+  <si>
+    <t>19.06.202454</t>
+  </si>
+  <si>
+    <t>19.06.202455</t>
+  </si>
+  <si>
+    <t>19.06.202456</t>
+  </si>
+  <si>
+    <t>19.06.202457</t>
+  </si>
+  <si>
+    <t>19.06.202458</t>
+  </si>
+  <si>
+    <t>19.06.202459</t>
+  </si>
+  <si>
+    <t>19.06.202460</t>
+  </si>
+  <si>
+    <t>19.06.202461</t>
+  </si>
+  <si>
+    <t>19.06.202462</t>
+  </si>
+  <si>
+    <t>19.06.202463</t>
+  </si>
+  <si>
+    <t>19.06.202464</t>
+  </si>
+  <si>
+    <t>19.06.202465</t>
+  </si>
+  <si>
+    <t>19.06.202466</t>
+  </si>
+  <si>
+    <t>19.06.202467</t>
+  </si>
+  <si>
+    <t>19.06.202468</t>
+  </si>
+  <si>
+    <t>19.06.202469</t>
+  </si>
+  <si>
+    <t>19.06.202470</t>
+  </si>
+  <si>
+    <t>19.06.202471</t>
+  </si>
+  <si>
+    <t>19.06.202472</t>
+  </si>
+  <si>
+    <t>19.06.202473</t>
+  </si>
+  <si>
+    <t>19.06.202474</t>
+  </si>
+  <si>
+    <t>19.06.202475</t>
+  </si>
+  <si>
+    <t>19.06.202476</t>
+  </si>
+  <si>
+    <t>19.06.202477</t>
+  </si>
+  <si>
+    <t>19.06.202478</t>
+  </si>
+  <si>
+    <t>19.06.202479</t>
+  </si>
+  <si>
+    <t>19.06.202480</t>
+  </si>
+  <si>
+    <t>19.06.202481</t>
+  </si>
+  <si>
+    <t>19.06.202482</t>
+  </si>
+  <si>
+    <t>19.06.202483</t>
+  </si>
+  <si>
+    <t>19.06.202484</t>
+  </si>
+  <si>
+    <t>19.06.202485</t>
+  </si>
+  <si>
+    <t>19.06.202486</t>
+  </si>
+  <si>
+    <t>19.06.202487</t>
+  </si>
+  <si>
+    <t>19.06.202488</t>
+  </si>
+  <si>
+    <t>19.06.202489</t>
+  </si>
+  <si>
+    <t>19.06.202490</t>
+  </si>
+  <si>
+    <t>19.06.202491</t>
+  </si>
+  <si>
+    <t>19.06.202492</t>
+  </si>
+  <si>
+    <t>19.06.202493</t>
+  </si>
+  <si>
+    <t>19.06.202494</t>
+  </si>
+  <si>
+    <t>19.06.202495</t>
+  </si>
+  <si>
+    <t>19.06.202496</t>
   </si>
 </sst>
 </file>
@@ -657,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +694,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45449</v>
+        <v>45462</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -693,10 +708,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45449.01041666666</v>
+        <v>45462.01041666666</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -707,10 +722,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45449.02083333334</v>
+        <v>45462.02083333334</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -721,10 +736,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45449.03125</v>
+        <v>45462.03125</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -735,10 +750,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45449.04166666666</v>
+        <v>45462.04166666666</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -749,10 +764,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45449.05208333334</v>
+        <v>45462.05208333334</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -763,10 +778,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45449.0625</v>
+        <v>45462.0625</v>
       </c>
       <c r="B8">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -777,10 +792,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45449.07291666666</v>
+        <v>45462.07291666666</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -791,10 +806,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45449.08333333334</v>
+        <v>45462.08333333334</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -805,10 +820,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45449.09375</v>
+        <v>45462.09375</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -819,10 +834,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45449.10416666666</v>
+        <v>45462.10416666666</v>
       </c>
       <c r="B12">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -833,10 +848,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45449.11458333334</v>
+        <v>45462.11458333334</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -847,10 +862,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45449.13541666666</v>
+        <v>45462.13541666666</v>
       </c>
       <c r="B14">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -861,10 +876,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45449.14583333334</v>
+        <v>45462.14583333334</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -875,10 +890,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45449.15625</v>
+        <v>45462.15625</v>
       </c>
       <c r="B16">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -889,10 +904,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45449.16666666666</v>
+        <v>45462.16666666666</v>
       </c>
       <c r="B17">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -903,10 +918,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45449.17708333334</v>
+        <v>45462.17708333334</v>
       </c>
       <c r="B18">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -917,10 +932,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45449.1875</v>
+        <v>45462.1875</v>
       </c>
       <c r="B19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -931,10 +946,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45449.19791666666</v>
+        <v>45462.19791666666</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -945,13 +960,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45449.20833333334</v>
+        <v>45462.20833333334</v>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C21">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>23</v>
@@ -959,13 +974,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45449.21875</v>
+        <v>45462.21875</v>
       </c>
       <c r="B22">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -973,13 +988,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45449.22916666666</v>
+        <v>45462.22916666666</v>
       </c>
       <c r="B23">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C23">
-        <v>0.054</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -987,13 +1002,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45449.23958333334</v>
+        <v>45462.23958333334</v>
       </c>
       <c r="B24">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -1001,13 +1016,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45449.25</v>
+        <v>45462.25</v>
       </c>
       <c r="B25">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>0.07199999999999999</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>27</v>
@@ -1015,13 +1030,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45449.26041666666</v>
+        <v>45462.26041666666</v>
       </c>
       <c r="B26">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -1029,13 +1044,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45449.27083333334</v>
+        <v>45462.27083333334</v>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C27">
-        <v>0.123</v>
+        <v>0.01</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1043,13 +1058,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45449.28125</v>
+        <v>45462.28125</v>
       </c>
       <c r="B28">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C28">
-        <v>0.125</v>
+        <v>0.018</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -1057,13 +1072,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45449.29166666666</v>
+        <v>45462.29166666666</v>
       </c>
       <c r="B29">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C29">
-        <v>0.177</v>
+        <v>0.031</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1071,13 +1086,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45449.30208333334</v>
+        <v>45462.30208333334</v>
       </c>
       <c r="B30">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C30">
-        <v>0.26</v>
+        <v>0.052</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -1085,13 +1100,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45449.3125</v>
+        <v>45462.3125</v>
       </c>
       <c r="B31">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>0.273</v>
+        <v>0.082</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -1099,13 +1114,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45449.32291666666</v>
+        <v>45462.32291666666</v>
       </c>
       <c r="B32">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C32">
-        <v>0.287</v>
+        <v>0.12</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -1113,13 +1128,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45449.33333333334</v>
+        <v>45462.33333333334</v>
       </c>
       <c r="B33">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C33">
-        <v>0.302</v>
+        <v>0.163</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1127,13 +1142,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45449.34375</v>
+        <v>45462.34375</v>
       </c>
       <c r="B34">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C34">
-        <v>0.347</v>
+        <v>0.208</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1141,13 +1156,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45449.35416666666</v>
+        <v>45462.35416666666</v>
       </c>
       <c r="B35">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C35">
-        <v>0.457</v>
+        <v>0.253</v>
       </c>
       <c r="D35" t="s">
         <v>37</v>
@@ -1155,13 +1170,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45449.36458333334</v>
+        <v>45462.36458333334</v>
       </c>
       <c r="B36">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C36">
-        <v>0.508</v>
+        <v>0.297</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -1169,13 +1184,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45449.375</v>
+        <v>45462.375</v>
       </c>
       <c r="B37">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C37">
-        <v>0.5580000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -1183,13 +1198,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45449.38541666666</v>
+        <v>45462.38541666666</v>
       </c>
       <c r="B38">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C38">
-        <v>0.58</v>
+        <v>0.382</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -1197,13 +1212,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45449.39583333334</v>
+        <v>45462.39583333334</v>
       </c>
       <c r="B39">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C39">
-        <v>0.597</v>
+        <v>0.421</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -1211,13 +1226,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45449.40625</v>
+        <v>45462.40625</v>
       </c>
       <c r="B40">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C40">
-        <v>0.61</v>
+        <v>0.458</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
@@ -1225,13 +1240,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45449.41666666666</v>
+        <v>45462.41666666666</v>
       </c>
       <c r="B41">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41">
-        <v>0.653</v>
+        <v>0.493</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -1239,13 +1254,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45449.42708333334</v>
+        <v>45462.42708333334</v>
       </c>
       <c r="B42">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C42">
-        <v>0.664</v>
+        <v>0.524</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -1253,13 +1268,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45449.4375</v>
+        <v>45462.4375</v>
       </c>
       <c r="B43">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C43">
-        <v>0.518</v>
+        <v>0.55</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -1267,13 +1282,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45449.44791666666</v>
+        <v>45462.44791666666</v>
       </c>
       <c r="B44">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C44">
-        <v>0.14</v>
+        <v>0.575</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1281,13 +1296,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45449.45833333334</v>
+        <v>45462.45833333334</v>
       </c>
       <c r="B45">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C45">
-        <v>0.08400000000000001</v>
+        <v>0.597</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -1295,13 +1310,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45449.46875</v>
+        <v>45462.46875</v>
       </c>
       <c r="B46">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C46">
-        <v>0.044</v>
+        <v>0.619</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -1309,13 +1324,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45449.47916666666</v>
+        <v>45462.47916666666</v>
       </c>
       <c r="B47">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C47">
-        <v>0.05</v>
+        <v>0.639</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -1323,13 +1338,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45449.48958333334</v>
+        <v>45462.48958333334</v>
       </c>
       <c r="B48">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C48">
-        <v>0.079</v>
+        <v>0.651</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -1337,13 +1352,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45449.5</v>
+        <v>45462.5</v>
       </c>
       <c r="B49">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C49">
-        <v>0.077</v>
+        <v>0.66</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -1351,13 +1366,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45449.51041666666</v>
+        <v>45462.51041666666</v>
       </c>
       <c r="B50">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C50">
-        <v>0.08</v>
+        <v>0.676</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -1365,13 +1380,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45449.52083333334</v>
+        <v>45462.52083333334</v>
       </c>
       <c r="B51">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C51">
-        <v>0.061</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D51" t="s">
         <v>53</v>
@@ -1379,13 +1394,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45449.53125</v>
+        <v>45462.53125</v>
       </c>
       <c r="B52">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C52">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
@@ -1393,13 +1408,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45449.54166666666</v>
+        <v>45462.54166666666</v>
       </c>
       <c r="B53">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C53">
-        <v>0.067</v>
+        <v>0.696</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -1407,13 +1422,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45449.55208333334</v>
+        <v>45462.55208333334</v>
       </c>
       <c r="B54">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C54">
-        <v>0.063</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -1421,13 +1436,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45449.5625</v>
+        <v>45462.5625</v>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C55">
-        <v>0.066</v>
+        <v>0.704</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -1435,13 +1450,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45449.57291666666</v>
+        <v>45462.57291666666</v>
       </c>
       <c r="B56">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C56">
-        <v>0.078</v>
+        <v>0.712</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
@@ -1449,13 +1464,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45449.58333333334</v>
+        <v>45462.58333333334</v>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C57">
-        <v>0.081</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="D57" t="s">
         <v>59</v>
@@ -1463,13 +1478,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45449.59375</v>
+        <v>45462.59375</v>
       </c>
       <c r="B58">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C58">
-        <v>0.08400000000000001</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -1477,13 +1492,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45449.60416666666</v>
+        <v>45462.60416666666</v>
       </c>
       <c r="B59">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C59">
-        <v>0.08400000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="D59" t="s">
         <v>61</v>
@@ -1491,13 +1506,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45449.61458333334</v>
+        <v>45462.61458333334</v>
       </c>
       <c r="B60">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C60">
-        <v>0.082</v>
+        <v>0.678</v>
       </c>
       <c r="D60" t="s">
         <v>62</v>
@@ -1505,13 +1520,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45449.625</v>
+        <v>45462.625</v>
       </c>
       <c r="B61">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C61">
-        <v>0.067</v>
+        <v>0.676</v>
       </c>
       <c r="D61" t="s">
         <v>63</v>
@@ -1519,13 +1534,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45449.63541666666</v>
+        <v>45462.63541666666</v>
       </c>
       <c r="B62">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C62">
-        <v>0.07099999999999999</v>
+        <v>0.668</v>
       </c>
       <c r="D62" t="s">
         <v>64</v>
@@ -1533,13 +1548,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45449.64583333334</v>
+        <v>45462.64583333334</v>
       </c>
       <c r="B63">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C63">
-        <v>0.053</v>
+        <v>0.645</v>
       </c>
       <c r="D63" t="s">
         <v>65</v>
@@ -1547,13 +1562,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45449.65625</v>
+        <v>45462.65625</v>
       </c>
       <c r="B64">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C64">
-        <v>0.054</v>
+        <v>0.637</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -1561,13 +1576,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45449.66666666666</v>
+        <v>45462.66666666666</v>
       </c>
       <c r="B65">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C65">
-        <v>0.07199999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="D65" t="s">
         <v>67</v>
@@ -1575,13 +1590,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45449.67708333334</v>
+        <v>45462.67708333334</v>
       </c>
       <c r="B66">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C66">
-        <v>0.07000000000000001</v>
+        <v>0.602</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -1589,13 +1604,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45449.6875</v>
+        <v>45462.6875</v>
       </c>
       <c r="B67">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C67">
-        <v>0.066</v>
+        <v>0.572</v>
       </c>
       <c r="D67" t="s">
         <v>69</v>
@@ -1603,13 +1618,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45449.69791666666</v>
+        <v>45462.69791666666</v>
       </c>
       <c r="B68">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C68">
-        <v>0.06</v>
+        <v>0.547</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -1617,13 +1632,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45449.70833333334</v>
+        <v>45462.70833333334</v>
       </c>
       <c r="B69">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C69">
-        <v>0.055</v>
+        <v>0.509</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
@@ -1631,13 +1646,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45449.71875</v>
+        <v>45462.71875</v>
       </c>
       <c r="B70">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C70">
-        <v>0.047</v>
+        <v>0.478</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -1645,13 +1660,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45449.72916666666</v>
+        <v>45462.72916666666</v>
       </c>
       <c r="B71">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C71">
-        <v>0.043</v>
+        <v>0.443</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
@@ -1659,13 +1674,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45449.73958333334</v>
+        <v>45462.73958333334</v>
       </c>
       <c r="B72">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C72">
-        <v>0.032</v>
+        <v>0.389</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
@@ -1673,13 +1688,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45449.75</v>
+        <v>45462.75</v>
       </c>
       <c r="B73">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C73">
-        <v>0.022</v>
+        <v>0.342</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
@@ -1687,13 +1702,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45449.76041666666</v>
+        <v>45462.76041666666</v>
       </c>
       <c r="B74">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C74">
-        <v>0.012</v>
+        <v>0.307</v>
       </c>
       <c r="D74" t="s">
         <v>76</v>
@@ -1701,13 +1716,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45449.77083333334</v>
+        <v>45462.77083333334</v>
       </c>
       <c r="B75">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C75">
-        <v>0.012</v>
+        <v>0.28</v>
       </c>
       <c r="D75" t="s">
         <v>77</v>
@@ -1715,13 +1730,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45449.78125</v>
+        <v>45462.78125</v>
       </c>
       <c r="B76">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C76">
-        <v>0.01</v>
+        <v>0.249</v>
       </c>
       <c r="D76" t="s">
         <v>78</v>
@@ -1729,13 +1744,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45449.79166666666</v>
+        <v>45462.79166666666</v>
       </c>
       <c r="B77">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.207</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -1743,13 +1758,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45449.80208333334</v>
+        <v>45462.80208333334</v>
       </c>
       <c r="B78">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -1757,13 +1772,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45449.8125</v>
+        <v>45462.8125</v>
       </c>
       <c r="B79">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.137</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -1771,13 +1786,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45449.82291666666</v>
+        <v>45462.82291666666</v>
       </c>
       <c r="B80">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="D80" t="s">
         <v>82</v>
@@ -1785,13 +1800,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45449.83333333334</v>
+        <v>45462.83333333334</v>
       </c>
       <c r="B81">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="D81" t="s">
         <v>83</v>
@@ -1799,13 +1814,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45449.84375</v>
+        <v>45462.84375</v>
       </c>
       <c r="B82">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.073</v>
       </c>
       <c r="D82" t="s">
         <v>84</v>
@@ -1813,13 +1828,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45449.85416666666</v>
+        <v>45462.85416666666</v>
       </c>
       <c r="B83">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="D83" t="s">
         <v>85</v>
@@ -1827,13 +1842,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45449.86458333334</v>
+        <v>45462.86458333334</v>
       </c>
       <c r="B84">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.047</v>
       </c>
       <c r="D84" t="s">
         <v>86</v>
@@ -1841,13 +1856,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45449.875</v>
+        <v>45462.875</v>
       </c>
       <c r="B85">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="D85" t="s">
         <v>87</v>
@@ -1855,13 +1870,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45449.88541666666</v>
+        <v>45462.88541666666</v>
       </c>
       <c r="B86">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>0.033</v>
       </c>
       <c r="D86" t="s">
         <v>88</v>
@@ -1869,10 +1884,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45449.89583333334</v>
+        <v>45462.89583333334</v>
       </c>
       <c r="B87">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1883,10 +1898,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45449.90625</v>
+        <v>45462.90625</v>
       </c>
       <c r="B88">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1897,10 +1912,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45449.91666666666</v>
+        <v>45462.91666666666</v>
       </c>
       <c r="B89">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1911,10 +1926,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45449.92708333334</v>
+        <v>45462.92708333334</v>
       </c>
       <c r="B90">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1925,16 +1940,86 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45449.9375</v>
+        <v>45462.9375</v>
       </c>
       <c r="B91">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
+        <v>45462.94791666666</v>
+      </c>
+      <c r="B92">
+        <v>92</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
+        <v>45462.95833333334</v>
+      </c>
+      <c r="B93">
+        <v>93</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
+        <v>45462.96875</v>
+      </c>
+      <c r="B94">
+        <v>94</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
+        <v>45462.97916666666</v>
+      </c>
+      <c r="B95">
+        <v>95</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
+        <v>45462.98958333334</v>
+      </c>
+      <c r="B96">
+        <v>96</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
+++ b/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
@@ -28,289 +28,289 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>19.06.20241</t>
-  </si>
-  <si>
-    <t>19.06.20242</t>
-  </si>
-  <si>
-    <t>19.06.20243</t>
-  </si>
-  <si>
-    <t>19.06.20244</t>
-  </si>
-  <si>
-    <t>19.06.20245</t>
-  </si>
-  <si>
-    <t>19.06.20246</t>
-  </si>
-  <si>
-    <t>19.06.20247</t>
-  </si>
-  <si>
-    <t>19.06.20248</t>
-  </si>
-  <si>
-    <t>19.06.20249</t>
-  </si>
-  <si>
-    <t>19.06.202410</t>
-  </si>
-  <si>
-    <t>19.06.202411</t>
-  </si>
-  <si>
-    <t>19.06.202412</t>
-  </si>
-  <si>
-    <t>19.06.202414</t>
-  </si>
-  <si>
-    <t>19.06.202415</t>
-  </si>
-  <si>
-    <t>19.06.202416</t>
-  </si>
-  <si>
-    <t>19.06.202417</t>
-  </si>
-  <si>
-    <t>19.06.202418</t>
-  </si>
-  <si>
-    <t>19.06.202419</t>
-  </si>
-  <si>
-    <t>19.06.202420</t>
-  </si>
-  <si>
-    <t>19.06.202421</t>
-  </si>
-  <si>
-    <t>19.06.202422</t>
-  </si>
-  <si>
-    <t>19.06.202423</t>
-  </si>
-  <si>
-    <t>19.06.202424</t>
-  </si>
-  <si>
-    <t>19.06.202425</t>
-  </si>
-  <si>
-    <t>19.06.202426</t>
-  </si>
-  <si>
-    <t>19.06.202427</t>
-  </si>
-  <si>
-    <t>19.06.202428</t>
-  </si>
-  <si>
-    <t>19.06.202429</t>
-  </si>
-  <si>
-    <t>19.06.202430</t>
-  </si>
-  <si>
-    <t>19.06.202431</t>
-  </si>
-  <si>
-    <t>19.06.202432</t>
-  </si>
-  <si>
-    <t>19.06.202433</t>
-  </si>
-  <si>
-    <t>19.06.202434</t>
-  </si>
-  <si>
-    <t>19.06.202435</t>
-  </si>
-  <si>
-    <t>19.06.202436</t>
-  </si>
-  <si>
-    <t>19.06.202437</t>
-  </si>
-  <si>
-    <t>19.06.202438</t>
-  </si>
-  <si>
-    <t>19.06.202439</t>
-  </si>
-  <si>
-    <t>19.06.202440</t>
-  </si>
-  <si>
-    <t>19.06.202441</t>
-  </si>
-  <si>
-    <t>19.06.202442</t>
-  </si>
-  <si>
-    <t>19.06.202443</t>
-  </si>
-  <si>
-    <t>19.06.202444</t>
-  </si>
-  <si>
-    <t>19.06.202445</t>
-  </si>
-  <si>
-    <t>19.06.202446</t>
-  </si>
-  <si>
-    <t>19.06.202447</t>
-  </si>
-  <si>
-    <t>19.06.202448</t>
-  </si>
-  <si>
-    <t>19.06.202449</t>
-  </si>
-  <si>
-    <t>19.06.202450</t>
-  </si>
-  <si>
-    <t>19.06.202451</t>
-  </si>
-  <si>
-    <t>19.06.202452</t>
-  </si>
-  <si>
-    <t>19.06.202453</t>
-  </si>
-  <si>
-    <t>19.06.202454</t>
-  </si>
-  <si>
-    <t>19.06.202455</t>
-  </si>
-  <si>
-    <t>19.06.202456</t>
-  </si>
-  <si>
-    <t>19.06.202457</t>
-  </si>
-  <si>
-    <t>19.06.202458</t>
-  </si>
-  <si>
-    <t>19.06.202459</t>
-  </si>
-  <si>
-    <t>19.06.202460</t>
-  </si>
-  <si>
-    <t>19.06.202461</t>
-  </si>
-  <si>
-    <t>19.06.202462</t>
-  </si>
-  <si>
-    <t>19.06.202463</t>
-  </si>
-  <si>
-    <t>19.06.202464</t>
-  </si>
-  <si>
-    <t>19.06.202465</t>
-  </si>
-  <si>
-    <t>19.06.202466</t>
-  </si>
-  <si>
-    <t>19.06.202467</t>
-  </si>
-  <si>
-    <t>19.06.202468</t>
-  </si>
-  <si>
-    <t>19.06.202469</t>
-  </si>
-  <si>
-    <t>19.06.202470</t>
-  </si>
-  <si>
-    <t>19.06.202471</t>
-  </si>
-  <si>
-    <t>19.06.202472</t>
-  </si>
-  <si>
-    <t>19.06.202473</t>
-  </si>
-  <si>
-    <t>19.06.202474</t>
-  </si>
-  <si>
-    <t>19.06.202475</t>
-  </si>
-  <si>
-    <t>19.06.202476</t>
-  </si>
-  <si>
-    <t>19.06.202477</t>
-  </si>
-  <si>
-    <t>19.06.202478</t>
-  </si>
-  <si>
-    <t>19.06.202479</t>
-  </si>
-  <si>
-    <t>19.06.202480</t>
-  </si>
-  <si>
-    <t>19.06.202481</t>
-  </si>
-  <si>
-    <t>19.06.202482</t>
-  </si>
-  <si>
-    <t>19.06.202483</t>
-  </si>
-  <si>
-    <t>19.06.202484</t>
-  </si>
-  <si>
-    <t>19.06.202485</t>
-  </si>
-  <si>
-    <t>19.06.202486</t>
-  </si>
-  <si>
-    <t>19.06.202487</t>
-  </si>
-  <si>
-    <t>19.06.202488</t>
-  </si>
-  <si>
-    <t>19.06.202489</t>
-  </si>
-  <si>
-    <t>19.06.202490</t>
-  </si>
-  <si>
-    <t>19.06.202491</t>
-  </si>
-  <si>
-    <t>19.06.202492</t>
-  </si>
-  <si>
-    <t>19.06.202493</t>
-  </si>
-  <si>
-    <t>19.06.202494</t>
-  </si>
-  <si>
-    <t>19.06.202495</t>
-  </si>
-  <si>
-    <t>19.06.202496</t>
+    <t>25.06.20241</t>
+  </si>
+  <si>
+    <t>25.06.20242</t>
+  </si>
+  <si>
+    <t>25.06.20243</t>
+  </si>
+  <si>
+    <t>25.06.20244</t>
+  </si>
+  <si>
+    <t>25.06.20245</t>
+  </si>
+  <si>
+    <t>25.06.20246</t>
+  </si>
+  <si>
+    <t>25.06.20247</t>
+  </si>
+  <si>
+    <t>25.06.20248</t>
+  </si>
+  <si>
+    <t>25.06.20249</t>
+  </si>
+  <si>
+    <t>25.06.202410</t>
+  </si>
+  <si>
+    <t>25.06.202411</t>
+  </si>
+  <si>
+    <t>25.06.202412</t>
+  </si>
+  <si>
+    <t>25.06.202414</t>
+  </si>
+  <si>
+    <t>25.06.202415</t>
+  </si>
+  <si>
+    <t>25.06.202416</t>
+  </si>
+  <si>
+    <t>25.06.202417</t>
+  </si>
+  <si>
+    <t>25.06.202418</t>
+  </si>
+  <si>
+    <t>25.06.202419</t>
+  </si>
+  <si>
+    <t>25.06.202420</t>
+  </si>
+  <si>
+    <t>25.06.202421</t>
+  </si>
+  <si>
+    <t>25.06.202422</t>
+  </si>
+  <si>
+    <t>25.06.202423</t>
+  </si>
+  <si>
+    <t>25.06.202424</t>
+  </si>
+  <si>
+    <t>25.06.202425</t>
+  </si>
+  <si>
+    <t>25.06.202426</t>
+  </si>
+  <si>
+    <t>25.06.202427</t>
+  </si>
+  <si>
+    <t>25.06.202428</t>
+  </si>
+  <si>
+    <t>25.06.202429</t>
+  </si>
+  <si>
+    <t>25.06.202430</t>
+  </si>
+  <si>
+    <t>25.06.202431</t>
+  </si>
+  <si>
+    <t>25.06.202432</t>
+  </si>
+  <si>
+    <t>25.06.202433</t>
+  </si>
+  <si>
+    <t>25.06.202434</t>
+  </si>
+  <si>
+    <t>25.06.202435</t>
+  </si>
+  <si>
+    <t>25.06.202436</t>
+  </si>
+  <si>
+    <t>25.06.202437</t>
+  </si>
+  <si>
+    <t>25.06.202438</t>
+  </si>
+  <si>
+    <t>25.06.202439</t>
+  </si>
+  <si>
+    <t>25.06.202440</t>
+  </si>
+  <si>
+    <t>25.06.202441</t>
+  </si>
+  <si>
+    <t>25.06.202442</t>
+  </si>
+  <si>
+    <t>25.06.202443</t>
+  </si>
+  <si>
+    <t>25.06.202444</t>
+  </si>
+  <si>
+    <t>25.06.202445</t>
+  </si>
+  <si>
+    <t>25.06.202446</t>
+  </si>
+  <si>
+    <t>25.06.202447</t>
+  </si>
+  <si>
+    <t>25.06.202448</t>
+  </si>
+  <si>
+    <t>25.06.202449</t>
+  </si>
+  <si>
+    <t>25.06.202450</t>
+  </si>
+  <si>
+    <t>25.06.202451</t>
+  </si>
+  <si>
+    <t>25.06.202452</t>
+  </si>
+  <si>
+    <t>25.06.202453</t>
+  </si>
+  <si>
+    <t>25.06.202454</t>
+  </si>
+  <si>
+    <t>25.06.202455</t>
+  </si>
+  <si>
+    <t>25.06.202456</t>
+  </si>
+  <si>
+    <t>25.06.202457</t>
+  </si>
+  <si>
+    <t>25.06.202458</t>
+  </si>
+  <si>
+    <t>25.06.202459</t>
+  </si>
+  <si>
+    <t>25.06.202460</t>
+  </si>
+  <si>
+    <t>25.06.202461</t>
+  </si>
+  <si>
+    <t>25.06.202462</t>
+  </si>
+  <si>
+    <t>25.06.202463</t>
+  </si>
+  <si>
+    <t>25.06.202464</t>
+  </si>
+  <si>
+    <t>25.06.202465</t>
+  </si>
+  <si>
+    <t>25.06.202466</t>
+  </si>
+  <si>
+    <t>25.06.202467</t>
+  </si>
+  <si>
+    <t>25.06.202468</t>
+  </si>
+  <si>
+    <t>25.06.202469</t>
+  </si>
+  <si>
+    <t>25.06.202470</t>
+  </si>
+  <si>
+    <t>25.06.202471</t>
+  </si>
+  <si>
+    <t>25.06.202472</t>
+  </si>
+  <si>
+    <t>25.06.202473</t>
+  </si>
+  <si>
+    <t>25.06.202474</t>
+  </si>
+  <si>
+    <t>25.06.202475</t>
+  </si>
+  <si>
+    <t>25.06.202476</t>
+  </si>
+  <si>
+    <t>25.06.202477</t>
+  </si>
+  <si>
+    <t>25.06.202478</t>
+  </si>
+  <si>
+    <t>25.06.202479</t>
+  </si>
+  <si>
+    <t>25.06.202480</t>
+  </si>
+  <si>
+    <t>25.06.202481</t>
+  </si>
+  <si>
+    <t>25.06.202482</t>
+  </si>
+  <si>
+    <t>25.06.202483</t>
+  </si>
+  <si>
+    <t>25.06.202484</t>
+  </si>
+  <si>
+    <t>25.06.202485</t>
+  </si>
+  <si>
+    <t>25.06.202486</t>
+  </si>
+  <si>
+    <t>25.06.202487</t>
+  </si>
+  <si>
+    <t>25.06.202488</t>
+  </si>
+  <si>
+    <t>25.06.202489</t>
+  </si>
+  <si>
+    <t>25.06.202490</t>
+  </si>
+  <si>
+    <t>25.06.202491</t>
+  </si>
+  <si>
+    <t>25.06.202492</t>
+  </si>
+  <si>
+    <t>25.06.202493</t>
+  </si>
+  <si>
+    <t>25.06.202494</t>
+  </si>
+  <si>
+    <t>25.06.202495</t>
+  </si>
+  <si>
+    <t>25.06.202496</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45462</v>
+        <v>45468</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45462.01041666666</v>
+        <v>45468.01041666666</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45462.02083333334</v>
+        <v>45468.02083333334</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45462.03125</v>
+        <v>45468.03125</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45462.04166666666</v>
+        <v>45468.04166666666</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45462.05208333334</v>
+        <v>45468.05208333334</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45462.0625</v>
+        <v>45468.0625</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45462.07291666666</v>
+        <v>45468.07291666666</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45462.08333333334</v>
+        <v>45468.08333333334</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45462.09375</v>
+        <v>45468.09375</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45462.10416666666</v>
+        <v>45468.10416666666</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45462.11458333334</v>
+        <v>45468.11458333334</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45462.13541666666</v>
+        <v>45468.13541666666</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45462.14583333334</v>
+        <v>45468.14583333334</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45462.15625</v>
+        <v>45468.15625</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45462.16666666666</v>
+        <v>45468.16666666666</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45462.17708333334</v>
+        <v>45468.17708333334</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45462.1875</v>
+        <v>45468.1875</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45462.19791666666</v>
+        <v>45468.19791666666</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45462.20833333334</v>
+        <v>45468.20833333334</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45462.21875</v>
+        <v>45468.21875</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45462.22916666666</v>
+        <v>45468.22916666666</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45462.23958333334</v>
+        <v>45468.23958333334</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45462.25</v>
+        <v>45468.25</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45462.26041666666</v>
+        <v>45468.26041666666</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45462.27083333334</v>
+        <v>45468.27083333334</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45462.28125</v>
+        <v>45468.28125</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.018</v>
+        <v>0.023</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45462.29166666666</v>
+        <v>45468.29166666666</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.031</v>
+        <v>0.041</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45462.30208333334</v>
+        <v>45468.30208333334</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.052</v>
+        <v>0.055</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45462.3125</v>
+        <v>45468.3125</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.082</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45462.32291666666</v>
+        <v>45468.32291666666</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.12</v>
+        <v>0.111</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -1128,13 +1128,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45462.33333333334</v>
+        <v>45468.33333333334</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.163</v>
+        <v>0.166</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45462.34375</v>
+        <v>45468.34375</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.208</v>
+        <v>0.202</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45462.35416666666</v>
+        <v>45468.35416666666</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.253</v>
+        <v>0.204</v>
       </c>
       <c r="D35" t="s">
         <v>37</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45462.36458333334</v>
+        <v>45468.36458333334</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.297</v>
+        <v>0.193</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45462.375</v>
+        <v>45468.375</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.34</v>
+        <v>0.234</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45462.38541666666</v>
+        <v>45468.38541666666</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.382</v>
+        <v>0.327</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45462.39583333334</v>
+        <v>45468.39583333334</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.421</v>
+        <v>0.394</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45462.40625</v>
+        <v>45468.40625</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.458</v>
+        <v>0.431</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45462.41666666666</v>
+        <v>45468.41666666666</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.493</v>
+        <v>0.465</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45462.42708333334</v>
+        <v>45468.42708333334</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.524</v>
+        <v>0.497</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45462.4375</v>
+        <v>45468.4375</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.55</v>
+        <v>0.529</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45462.44791666666</v>
+        <v>45468.44791666666</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.575</v>
+        <v>0.556</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45462.45833333334</v>
+        <v>45468.45833333334</v>
       </c>
       <c r="B45">
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.597</v>
+        <v>0.579</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45462.46875</v>
+        <v>45468.46875</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.619</v>
+        <v>0.6</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45462.47916666666</v>
+        <v>45468.47916666666</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.639</v>
+        <v>0.616</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45462.48958333334</v>
+        <v>45468.48958333334</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.651</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45462.5</v>
+        <v>45468.5</v>
       </c>
       <c r="B49">
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.66</v>
+        <v>0.703</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45462.51041666666</v>
+        <v>45468.51041666666</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.676</v>
+        <v>0.717</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45462.52083333334</v>
+        <v>45468.52083333334</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.6850000000000001</v>
+        <v>0.732</v>
       </c>
       <c r="D51" t="s">
         <v>53</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45462.53125</v>
+        <v>45468.53125</v>
       </c>
       <c r="B52">
         <v>52</v>
       </c>
       <c r="C52">
-        <v>0.6899999999999999</v>
+        <v>0.733</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45462.54166666666</v>
+        <v>45468.54166666666</v>
       </c>
       <c r="B53">
         <v>53</v>
       </c>
       <c r="C53">
-        <v>0.696</v>
+        <v>0.733</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45462.55208333334</v>
+        <v>45468.55208333334</v>
       </c>
       <c r="B54">
         <v>54</v>
       </c>
       <c r="C54">
-        <v>0.6870000000000001</v>
+        <v>0.733</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45462.5625</v>
+        <v>45468.5625</v>
       </c>
       <c r="B55">
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0.704</v>
+        <v>0.73</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45462.57291666666</v>
+        <v>45468.57291666666</v>
       </c>
       <c r="B56">
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.712</v>
+        <v>0.726</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45462.58333333334</v>
+        <v>45468.58333333334</v>
       </c>
       <c r="B57">
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.6919999999999999</v>
+        <v>0.715</v>
       </c>
       <c r="D57" t="s">
         <v>59</v>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45462.59375</v>
+        <v>45468.59375</v>
       </c>
       <c r="B58">
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.6850000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45462.60416666666</v>
+        <v>45468.60416666666</v>
       </c>
       <c r="B59">
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.6820000000000001</v>
+        <v>0.673</v>
       </c>
       <c r="D59" t="s">
         <v>61</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45462.61458333334</v>
+        <v>45468.61458333334</v>
       </c>
       <c r="B60">
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.678</v>
+        <v>0.646</v>
       </c>
       <c r="D60" t="s">
         <v>62</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45462.625</v>
+        <v>45468.625</v>
       </c>
       <c r="B61">
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.676</v>
+        <v>0.598</v>
       </c>
       <c r="D61" t="s">
         <v>63</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45462.63541666666</v>
+        <v>45468.63541666666</v>
       </c>
       <c r="B62">
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.668</v>
+        <v>0.551</v>
       </c>
       <c r="D62" t="s">
         <v>64</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45462.64583333334</v>
+        <v>45468.64583333334</v>
       </c>
       <c r="B63">
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.645</v>
+        <v>0.506</v>
       </c>
       <c r="D63" t="s">
         <v>65</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45462.65625</v>
+        <v>45468.65625</v>
       </c>
       <c r="B64">
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0.637</v>
+        <v>0.491</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45462.66666666666</v>
+        <v>45468.66666666666</v>
       </c>
       <c r="B65">
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.62</v>
+        <v>0.456</v>
       </c>
       <c r="D65" t="s">
         <v>67</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45462.67708333334</v>
+        <v>45468.67708333334</v>
       </c>
       <c r="B66">
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.602</v>
+        <v>0.407</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45462.6875</v>
+        <v>45468.6875</v>
       </c>
       <c r="B67">
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0.572</v>
+        <v>0.367</v>
       </c>
       <c r="D67" t="s">
         <v>69</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45462.69791666666</v>
+        <v>45468.69791666666</v>
       </c>
       <c r="B68">
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0.547</v>
+        <v>0.326</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45462.70833333334</v>
+        <v>45468.70833333334</v>
       </c>
       <c r="B69">
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0.509</v>
+        <v>0.32</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45462.71875</v>
+        <v>45468.71875</v>
       </c>
       <c r="B70">
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0.478</v>
+        <v>0.303</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45462.72916666666</v>
+        <v>45468.72916666666</v>
       </c>
       <c r="B71">
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0.443</v>
+        <v>0.285</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45462.73958333334</v>
+        <v>45468.73958333334</v>
       </c>
       <c r="B72">
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.389</v>
+        <v>0.273</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45462.75</v>
+        <v>45468.75</v>
       </c>
       <c r="B73">
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0.342</v>
+        <v>0.241</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45462.76041666666</v>
+        <v>45468.76041666666</v>
       </c>
       <c r="B74">
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0.307</v>
+        <v>0.197</v>
       </c>
       <c r="D74" t="s">
         <v>76</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45462.77083333334</v>
+        <v>45468.77083333334</v>
       </c>
       <c r="B75">
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.28</v>
+        <v>0.161</v>
       </c>
       <c r="D75" t="s">
         <v>77</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45462.78125</v>
+        <v>45468.78125</v>
       </c>
       <c r="B76">
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0.249</v>
+        <v>0.127</v>
       </c>
       <c r="D76" t="s">
         <v>78</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45462.79166666666</v>
+        <v>45468.79166666666</v>
       </c>
       <c r="B77">
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0.207</v>
+        <v>0.11</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45462.80208333334</v>
+        <v>45468.80208333334</v>
       </c>
       <c r="B78">
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0.165</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45462.8125</v>
+        <v>45468.8125</v>
       </c>
       <c r="B79">
         <v>79</v>
       </c>
       <c r="C79">
-        <v>0.137</v>
+        <v>0.074</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45462.82291666666</v>
+        <v>45468.82291666666</v>
       </c>
       <c r="B80">
         <v>80</v>
       </c>
       <c r="C80">
-        <v>0.112</v>
+        <v>0.066</v>
       </c>
       <c r="D80" t="s">
         <v>82</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45462.83333333334</v>
+        <v>45468.83333333334</v>
       </c>
       <c r="B81">
         <v>81</v>
       </c>
       <c r="C81">
-        <v>0.091</v>
+        <v>0.054</v>
       </c>
       <c r="D81" t="s">
         <v>83</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45462.84375</v>
+        <v>45468.84375</v>
       </c>
       <c r="B82">
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0.073</v>
+        <v>0.046</v>
       </c>
       <c r="D82" t="s">
         <v>84</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45462.85416666666</v>
+        <v>45468.85416666666</v>
       </c>
       <c r="B83">
         <v>83</v>
       </c>
       <c r="C83">
-        <v>0.062</v>
+        <v>0.038</v>
       </c>
       <c r="D83" t="s">
         <v>85</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45462.86458333334</v>
+        <v>45468.86458333334</v>
       </c>
       <c r="B84">
         <v>84</v>
       </c>
       <c r="C84">
-        <v>0.047</v>
+        <v>0.025</v>
       </c>
       <c r="D84" t="s">
         <v>86</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45462.875</v>
+        <v>45468.875</v>
       </c>
       <c r="B85">
         <v>85</v>
       </c>
       <c r="C85">
-        <v>0.04</v>
+        <v>0.017</v>
       </c>
       <c r="D85" t="s">
         <v>87</v>
@@ -1870,13 +1870,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45462.88541666666</v>
+        <v>45468.88541666666</v>
       </c>
       <c r="B86">
         <v>86</v>
       </c>
       <c r="C86">
-        <v>0.033</v>
+        <v>0.011</v>
       </c>
       <c r="D86" t="s">
         <v>88</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45462.89583333334</v>
+        <v>45468.89583333334</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45462.90625</v>
+        <v>45468.90625</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45462.91666666666</v>
+        <v>45468.91666666666</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45462.92708333334</v>
+        <v>45468.92708333334</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45462.9375</v>
+        <v>45468.9375</v>
       </c>
       <c r="B91">
         <v>91</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45462.94791666666</v>
+        <v>45468.94791666666</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45462.95833333334</v>
+        <v>45468.95833333334</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45462.96875</v>
+        <v>45468.96875</v>
       </c>
       <c r="B94">
         <v>94</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45462.97916666666</v>
+        <v>45468.97916666666</v>
       </c>
       <c r="B95">
         <v>95</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45462.98958333334</v>
+        <v>45468.98958333334</v>
       </c>
       <c r="B96">
         <v>96</v>

--- a/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
+++ b/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
@@ -28,289 +28,289 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>25.06.20241</t>
-  </si>
-  <si>
-    <t>25.06.20242</t>
-  </si>
-  <si>
-    <t>25.06.20243</t>
-  </si>
-  <si>
-    <t>25.06.20244</t>
-  </si>
-  <si>
-    <t>25.06.20245</t>
-  </si>
-  <si>
-    <t>25.06.20246</t>
-  </si>
-  <si>
-    <t>25.06.20247</t>
-  </si>
-  <si>
-    <t>25.06.20248</t>
-  </si>
-  <si>
-    <t>25.06.20249</t>
-  </si>
-  <si>
-    <t>25.06.202410</t>
-  </si>
-  <si>
-    <t>25.06.202411</t>
-  </si>
-  <si>
-    <t>25.06.202412</t>
-  </si>
-  <si>
-    <t>25.06.202414</t>
-  </si>
-  <si>
-    <t>25.06.202415</t>
-  </si>
-  <si>
-    <t>25.06.202416</t>
-  </si>
-  <si>
-    <t>25.06.202417</t>
-  </si>
-  <si>
-    <t>25.06.202418</t>
-  </si>
-  <si>
-    <t>25.06.202419</t>
-  </si>
-  <si>
-    <t>25.06.202420</t>
-  </si>
-  <si>
-    <t>25.06.202421</t>
-  </si>
-  <si>
-    <t>25.06.202422</t>
-  </si>
-  <si>
-    <t>25.06.202423</t>
-  </si>
-  <si>
-    <t>25.06.202424</t>
-  </si>
-  <si>
-    <t>25.06.202425</t>
-  </si>
-  <si>
-    <t>25.06.202426</t>
-  </si>
-  <si>
-    <t>25.06.202427</t>
-  </si>
-  <si>
-    <t>25.06.202428</t>
-  </si>
-  <si>
-    <t>25.06.202429</t>
-  </si>
-  <si>
-    <t>25.06.202430</t>
-  </si>
-  <si>
-    <t>25.06.202431</t>
-  </si>
-  <si>
-    <t>25.06.202432</t>
-  </si>
-  <si>
-    <t>25.06.202433</t>
-  </si>
-  <si>
-    <t>25.06.202434</t>
-  </si>
-  <si>
-    <t>25.06.202435</t>
-  </si>
-  <si>
-    <t>25.06.202436</t>
-  </si>
-  <si>
-    <t>25.06.202437</t>
-  </si>
-  <si>
-    <t>25.06.202438</t>
-  </si>
-  <si>
-    <t>25.06.202439</t>
-  </si>
-  <si>
-    <t>25.06.202440</t>
-  </si>
-  <si>
-    <t>25.06.202441</t>
-  </si>
-  <si>
-    <t>25.06.202442</t>
-  </si>
-  <si>
-    <t>25.06.202443</t>
-  </si>
-  <si>
-    <t>25.06.202444</t>
-  </si>
-  <si>
-    <t>25.06.202445</t>
-  </si>
-  <si>
-    <t>25.06.202446</t>
-  </si>
-  <si>
-    <t>25.06.202447</t>
-  </si>
-  <si>
-    <t>25.06.202448</t>
-  </si>
-  <si>
-    <t>25.06.202449</t>
-  </si>
-  <si>
-    <t>25.06.202450</t>
-  </si>
-  <si>
-    <t>25.06.202451</t>
-  </si>
-  <si>
-    <t>25.06.202452</t>
-  </si>
-  <si>
-    <t>25.06.202453</t>
-  </si>
-  <si>
-    <t>25.06.202454</t>
-  </si>
-  <si>
-    <t>25.06.202455</t>
-  </si>
-  <si>
-    <t>25.06.202456</t>
-  </si>
-  <si>
-    <t>25.06.202457</t>
-  </si>
-  <si>
-    <t>25.06.202458</t>
-  </si>
-  <si>
-    <t>25.06.202459</t>
-  </si>
-  <si>
-    <t>25.06.202460</t>
-  </si>
-  <si>
-    <t>25.06.202461</t>
-  </si>
-  <si>
-    <t>25.06.202462</t>
-  </si>
-  <si>
-    <t>25.06.202463</t>
-  </si>
-  <si>
-    <t>25.06.202464</t>
-  </si>
-  <si>
-    <t>25.06.202465</t>
-  </si>
-  <si>
-    <t>25.06.202466</t>
-  </si>
-  <si>
-    <t>25.06.202467</t>
-  </si>
-  <si>
-    <t>25.06.202468</t>
-  </si>
-  <si>
-    <t>25.06.202469</t>
-  </si>
-  <si>
-    <t>25.06.202470</t>
-  </si>
-  <si>
-    <t>25.06.202471</t>
-  </si>
-  <si>
-    <t>25.06.202472</t>
-  </si>
-  <si>
-    <t>25.06.202473</t>
-  </si>
-  <si>
-    <t>25.06.202474</t>
-  </si>
-  <si>
-    <t>25.06.202475</t>
-  </si>
-  <si>
-    <t>25.06.202476</t>
-  </si>
-  <si>
-    <t>25.06.202477</t>
-  </si>
-  <si>
-    <t>25.06.202478</t>
-  </si>
-  <si>
-    <t>25.06.202479</t>
-  </si>
-  <si>
-    <t>25.06.202480</t>
-  </si>
-  <si>
-    <t>25.06.202481</t>
-  </si>
-  <si>
-    <t>25.06.202482</t>
-  </si>
-  <si>
-    <t>25.06.202483</t>
-  </si>
-  <si>
-    <t>25.06.202484</t>
-  </si>
-  <si>
-    <t>25.06.202485</t>
-  </si>
-  <si>
-    <t>25.06.202486</t>
-  </si>
-  <si>
-    <t>25.06.202487</t>
-  </si>
-  <si>
-    <t>25.06.202488</t>
-  </si>
-  <si>
-    <t>25.06.202489</t>
-  </si>
-  <si>
-    <t>25.06.202490</t>
-  </si>
-  <si>
-    <t>25.06.202491</t>
-  </si>
-  <si>
-    <t>25.06.202492</t>
-  </si>
-  <si>
-    <t>25.06.202493</t>
-  </si>
-  <si>
-    <t>25.06.202494</t>
-  </si>
-  <si>
-    <t>25.06.202495</t>
-  </si>
-  <si>
-    <t>25.06.202496</t>
+    <t>23.07.20241</t>
+  </si>
+  <si>
+    <t>23.07.20242</t>
+  </si>
+  <si>
+    <t>23.07.20243</t>
+  </si>
+  <si>
+    <t>23.07.20244</t>
+  </si>
+  <si>
+    <t>23.07.20245</t>
+  </si>
+  <si>
+    <t>23.07.20246</t>
+  </si>
+  <si>
+    <t>23.07.20247</t>
+  </si>
+  <si>
+    <t>23.07.20248</t>
+  </si>
+  <si>
+    <t>23.07.20249</t>
+  </si>
+  <si>
+    <t>23.07.202410</t>
+  </si>
+  <si>
+    <t>23.07.202411</t>
+  </si>
+  <si>
+    <t>23.07.202412</t>
+  </si>
+  <si>
+    <t>23.07.202414</t>
+  </si>
+  <si>
+    <t>23.07.202415</t>
+  </si>
+  <si>
+    <t>23.07.202416</t>
+  </si>
+  <si>
+    <t>23.07.202417</t>
+  </si>
+  <si>
+    <t>23.07.202418</t>
+  </si>
+  <si>
+    <t>23.07.202419</t>
+  </si>
+  <si>
+    <t>23.07.202420</t>
+  </si>
+  <si>
+    <t>23.07.202421</t>
+  </si>
+  <si>
+    <t>23.07.202422</t>
+  </si>
+  <si>
+    <t>23.07.202423</t>
+  </si>
+  <si>
+    <t>23.07.202424</t>
+  </si>
+  <si>
+    <t>23.07.202425</t>
+  </si>
+  <si>
+    <t>23.07.202426</t>
+  </si>
+  <si>
+    <t>23.07.202427</t>
+  </si>
+  <si>
+    <t>23.07.202428</t>
+  </si>
+  <si>
+    <t>23.07.202429</t>
+  </si>
+  <si>
+    <t>23.07.202430</t>
+  </si>
+  <si>
+    <t>23.07.202431</t>
+  </si>
+  <si>
+    <t>23.07.202432</t>
+  </si>
+  <si>
+    <t>23.07.202433</t>
+  </si>
+  <si>
+    <t>23.07.202434</t>
+  </si>
+  <si>
+    <t>23.07.202435</t>
+  </si>
+  <si>
+    <t>23.07.202436</t>
+  </si>
+  <si>
+    <t>23.07.202437</t>
+  </si>
+  <si>
+    <t>23.07.202438</t>
+  </si>
+  <si>
+    <t>23.07.202439</t>
+  </si>
+  <si>
+    <t>23.07.202440</t>
+  </si>
+  <si>
+    <t>23.07.202441</t>
+  </si>
+  <si>
+    <t>23.07.202442</t>
+  </si>
+  <si>
+    <t>23.07.202443</t>
+  </si>
+  <si>
+    <t>23.07.202444</t>
+  </si>
+  <si>
+    <t>23.07.202445</t>
+  </si>
+  <si>
+    <t>23.07.202446</t>
+  </si>
+  <si>
+    <t>23.07.202447</t>
+  </si>
+  <si>
+    <t>23.07.202448</t>
+  </si>
+  <si>
+    <t>23.07.202449</t>
+  </si>
+  <si>
+    <t>23.07.202450</t>
+  </si>
+  <si>
+    <t>23.07.202451</t>
+  </si>
+  <si>
+    <t>23.07.202452</t>
+  </si>
+  <si>
+    <t>23.07.202453</t>
+  </si>
+  <si>
+    <t>23.07.202454</t>
+  </si>
+  <si>
+    <t>23.07.202455</t>
+  </si>
+  <si>
+    <t>23.07.202456</t>
+  </si>
+  <si>
+    <t>23.07.202457</t>
+  </si>
+  <si>
+    <t>23.07.202458</t>
+  </si>
+  <si>
+    <t>23.07.202459</t>
+  </si>
+  <si>
+    <t>23.07.202460</t>
+  </si>
+  <si>
+    <t>23.07.202461</t>
+  </si>
+  <si>
+    <t>23.07.202462</t>
+  </si>
+  <si>
+    <t>23.07.202463</t>
+  </si>
+  <si>
+    <t>23.07.202464</t>
+  </si>
+  <si>
+    <t>23.07.202465</t>
+  </si>
+  <si>
+    <t>23.07.202466</t>
+  </si>
+  <si>
+    <t>23.07.202467</t>
+  </si>
+  <si>
+    <t>23.07.202468</t>
+  </si>
+  <si>
+    <t>23.07.202469</t>
+  </si>
+  <si>
+    <t>23.07.202470</t>
+  </si>
+  <si>
+    <t>23.07.202471</t>
+  </si>
+  <si>
+    <t>23.07.202472</t>
+  </si>
+  <si>
+    <t>23.07.202473</t>
+  </si>
+  <si>
+    <t>23.07.202474</t>
+  </si>
+  <si>
+    <t>23.07.202475</t>
+  </si>
+  <si>
+    <t>23.07.202476</t>
+  </si>
+  <si>
+    <t>23.07.202477</t>
+  </si>
+  <si>
+    <t>23.07.202478</t>
+  </si>
+  <si>
+    <t>23.07.202479</t>
+  </si>
+  <si>
+    <t>23.07.202480</t>
+  </si>
+  <si>
+    <t>23.07.202481</t>
+  </si>
+  <si>
+    <t>23.07.202482</t>
+  </si>
+  <si>
+    <t>23.07.202483</t>
+  </si>
+  <si>
+    <t>23.07.202484</t>
+  </si>
+  <si>
+    <t>23.07.202485</t>
+  </si>
+  <si>
+    <t>23.07.202486</t>
+  </si>
+  <si>
+    <t>23.07.202487</t>
+  </si>
+  <si>
+    <t>23.07.202488</t>
+  </si>
+  <si>
+    <t>23.07.202489</t>
+  </si>
+  <si>
+    <t>23.07.202490</t>
+  </si>
+  <si>
+    <t>23.07.202491</t>
+  </si>
+  <si>
+    <t>23.07.202492</t>
+  </si>
+  <si>
+    <t>23.07.202493</t>
+  </si>
+  <si>
+    <t>23.07.202494</t>
+  </si>
+  <si>
+    <t>23.07.202495</t>
+  </si>
+  <si>
+    <t>23.07.202496</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45468</v>
+        <v>45496</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45468.01041666666</v>
+        <v>45496.01041666666</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45468.02083333334</v>
+        <v>45496.02083333334</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45468.03125</v>
+        <v>45496.03125</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45468.04166666666</v>
+        <v>45496.04166666666</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45468.05208333334</v>
+        <v>45496.05208333334</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45468.0625</v>
+        <v>45496.0625</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45468.07291666666</v>
+        <v>45496.07291666666</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45468.08333333334</v>
+        <v>45496.08333333334</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45468.09375</v>
+        <v>45496.09375</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45468.10416666666</v>
+        <v>45496.10416666666</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45468.11458333334</v>
+        <v>45496.11458333334</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45468.13541666666</v>
+        <v>45496.13541666666</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45468.14583333334</v>
+        <v>45496.14583333334</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45468.15625</v>
+        <v>45496.15625</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45468.16666666666</v>
+        <v>45496.16666666666</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45468.17708333334</v>
+        <v>45496.17708333334</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45468.1875</v>
+        <v>45496.1875</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45468.19791666666</v>
+        <v>45496.19791666666</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45468.20833333334</v>
+        <v>45496.20833333334</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45468.21875</v>
+        <v>45496.21875</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45468.22916666666</v>
+        <v>45496.22916666666</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45468.23958333334</v>
+        <v>45496.23958333334</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45468.25</v>
+        <v>45496.25</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45468.26041666666</v>
+        <v>45496.26041666666</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -1044,13 +1044,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45468.27083333334</v>
+        <v>45496.27083333334</v>
       </c>
       <c r="B27">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
@@ -1058,13 +1058,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45468.28125</v>
+        <v>45496.28125</v>
       </c>
       <c r="B28">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="D28" t="s">
         <v>30</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45468.29166666666</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.041</v>
+        <v>0.014</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45468.30208333334</v>
+        <v>45496.30208333334</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.055</v>
+        <v>0.032</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45468.3125</v>
+        <v>45496.3125</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.07000000000000001</v>
+        <v>0.056</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45468.32291666666</v>
+        <v>45496.32291666666</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.111</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -1128,13 +1128,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45468.33333333334</v>
+        <v>45496.33333333334</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.166</v>
+        <v>0.124</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45468.34375</v>
+        <v>45496.34375</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.202</v>
+        <v>0.166</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45468.35416666666</v>
+        <v>45496.35416666666</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.204</v>
+        <v>0.21</v>
       </c>
       <c r="D35" t="s">
         <v>37</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45468.36458333334</v>
+        <v>45496.36458333334</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.193</v>
+        <v>0.255</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45468.375</v>
+        <v>45496.375</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.234</v>
+        <v>0.298</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45468.38541666666</v>
+        <v>45496.38541666666</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.327</v>
+        <v>0.342</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45468.39583333334</v>
+        <v>45496.39583333334</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.394</v>
+        <v>0.383</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45468.40625</v>
+        <v>45496.40625</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.431</v>
+        <v>0.449</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45468.41666666666</v>
+        <v>45496.41666666666</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.465</v>
+        <v>0.52</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45468.42708333334</v>
+        <v>45496.42708333334</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.497</v>
+        <v>0.584</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45468.4375</v>
+        <v>45496.4375</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.529</v>
+        <v>0.616</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45468.44791666666</v>
+        <v>45496.44791666666</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.556</v>
+        <v>0.641</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45468.45833333334</v>
+        <v>45496.45833333334</v>
       </c>
       <c r="B45">
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.579</v>
+        <v>0.68</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45468.46875</v>
+        <v>45496.46875</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.6</v>
+        <v>0.697</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45468.47916666666</v>
+        <v>45496.47916666666</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.616</v>
+        <v>0.706</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45468.48958333334</v>
+        <v>45496.48958333334</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.6840000000000001</v>
+        <v>0.717</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45468.5</v>
+        <v>45496.5</v>
       </c>
       <c r="B49">
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.703</v>
+        <v>0.732</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45468.51041666666</v>
+        <v>45496.51041666666</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.717</v>
+        <v>0.733</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45468.52083333334</v>
+        <v>45496.52083333334</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.732</v>
+        <v>0.733</v>
       </c>
       <c r="D51" t="s">
         <v>53</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45468.53125</v>
+        <v>45496.53125</v>
       </c>
       <c r="B52">
         <v>52</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45468.54166666666</v>
+        <v>45496.54166666666</v>
       </c>
       <c r="B53">
         <v>53</v>
       </c>
       <c r="C53">
-        <v>0.733</v>
+        <v>0.727</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45468.55208333334</v>
+        <v>45496.55208333334</v>
       </c>
       <c r="B54">
         <v>54</v>
       </c>
       <c r="C54">
-        <v>0.733</v>
+        <v>0.727</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45468.5625</v>
+        <v>45496.5625</v>
       </c>
       <c r="B55">
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0.73</v>
+        <v>0.724</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45468.57291666666</v>
+        <v>45496.57291666666</v>
       </c>
       <c r="B56">
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.726</v>
+        <v>0.715</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45468.58333333334</v>
+        <v>45496.58333333334</v>
       </c>
       <c r="B57">
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.715</v>
+        <v>0.71</v>
       </c>
       <c r="D57" t="s">
         <v>59</v>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45468.59375</v>
+        <v>45496.59375</v>
       </c>
       <c r="B58">
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.7</v>
+        <v>0.703</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45468.60416666666</v>
+        <v>45496.60416666666</v>
       </c>
       <c r="B59">
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.673</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="D59" t="s">
         <v>61</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45468.61458333334</v>
+        <v>45496.61458333334</v>
       </c>
       <c r="B60">
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.646</v>
+        <v>0.672</v>
       </c>
       <c r="D60" t="s">
         <v>62</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45468.625</v>
+        <v>45496.625</v>
       </c>
       <c r="B61">
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.598</v>
+        <v>0.672</v>
       </c>
       <c r="D61" t="s">
         <v>63</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45468.63541666666</v>
+        <v>45496.63541666666</v>
       </c>
       <c r="B62">
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.551</v>
+        <v>0.662</v>
       </c>
       <c r="D62" t="s">
         <v>64</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45468.64583333334</v>
+        <v>45496.64583333334</v>
       </c>
       <c r="B63">
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.506</v>
+        <v>0.622</v>
       </c>
       <c r="D63" t="s">
         <v>65</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45468.65625</v>
+        <v>45496.65625</v>
       </c>
       <c r="B64">
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0.491</v>
+        <v>0.587</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45468.66666666666</v>
+        <v>45496.66666666666</v>
       </c>
       <c r="B65">
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.456</v>
+        <v>0.554</v>
       </c>
       <c r="D65" t="s">
         <v>67</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45468.67708333334</v>
+        <v>45496.67708333334</v>
       </c>
       <c r="B66">
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.407</v>
+        <v>0.534</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45468.6875</v>
+        <v>45496.6875</v>
       </c>
       <c r="B67">
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0.367</v>
+        <v>0.501</v>
       </c>
       <c r="D67" t="s">
         <v>69</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45468.69791666666</v>
+        <v>45496.69791666666</v>
       </c>
       <c r="B68">
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0.326</v>
+        <v>0.458</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45468.70833333334</v>
+        <v>45496.70833333334</v>
       </c>
       <c r="B69">
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0.32</v>
+        <v>0.416</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45468.71875</v>
+        <v>45496.71875</v>
       </c>
       <c r="B70">
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0.303</v>
+        <v>0.37</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45468.72916666666</v>
+        <v>45496.72916666666</v>
       </c>
       <c r="B71">
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0.285</v>
+        <v>0.324</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45468.73958333334</v>
+        <v>45496.73958333334</v>
       </c>
       <c r="B72">
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.273</v>
+        <v>0.307</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45468.75</v>
+        <v>45496.75</v>
       </c>
       <c r="B73">
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0.241</v>
+        <v>0.283</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45468.76041666666</v>
+        <v>45496.76041666666</v>
       </c>
       <c r="B74">
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0.197</v>
+        <v>0.257</v>
       </c>
       <c r="D74" t="s">
         <v>76</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45468.77083333334</v>
+        <v>45496.77083333334</v>
       </c>
       <c r="B75">
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.161</v>
+        <v>0.212</v>
       </c>
       <c r="D75" t="s">
         <v>77</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45468.78125</v>
+        <v>45496.78125</v>
       </c>
       <c r="B76">
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0.127</v>
+        <v>0.163</v>
       </c>
       <c r="D76" t="s">
         <v>78</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45468.79166666666</v>
+        <v>45496.79166666666</v>
       </c>
       <c r="B77">
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0.11</v>
+        <v>0.144</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45468.80208333334</v>
+        <v>45496.80208333334</v>
       </c>
       <c r="B78">
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0.08500000000000001</v>
+        <v>0.117</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45468.8125</v>
+        <v>45496.8125</v>
       </c>
       <c r="B79">
         <v>79</v>
       </c>
       <c r="C79">
-        <v>0.074</v>
+        <v>0.098</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45468.82291666666</v>
+        <v>45496.82291666666</v>
       </c>
       <c r="B80">
         <v>80</v>
       </c>
       <c r="C80">
-        <v>0.066</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D80" t="s">
         <v>82</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45468.83333333334</v>
+        <v>45496.83333333334</v>
       </c>
       <c r="B81">
         <v>81</v>
       </c>
       <c r="C81">
-        <v>0.054</v>
+        <v>0.067</v>
       </c>
       <c r="D81" t="s">
         <v>83</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45468.84375</v>
+        <v>45496.84375</v>
       </c>
       <c r="B82">
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0.046</v>
+        <v>0.052</v>
       </c>
       <c r="D82" t="s">
         <v>84</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45468.85416666666</v>
+        <v>45496.85416666666</v>
       </c>
       <c r="B83">
         <v>83</v>
       </c>
       <c r="C83">
-        <v>0.038</v>
+        <v>0.041</v>
       </c>
       <c r="D83" t="s">
         <v>85</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45468.86458333334</v>
+        <v>45496.86458333334</v>
       </c>
       <c r="B84">
         <v>84</v>
       </c>
       <c r="C84">
-        <v>0.025</v>
+        <v>0.033</v>
       </c>
       <c r="D84" t="s">
         <v>86</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45468.875</v>
+        <v>45496.875</v>
       </c>
       <c r="B85">
         <v>85</v>
       </c>
       <c r="C85">
-        <v>0.017</v>
+        <v>0.024</v>
       </c>
       <c r="D85" t="s">
         <v>87</v>
@@ -1870,13 +1870,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45468.88541666666</v>
+        <v>45496.88541666666</v>
       </c>
       <c r="B86">
         <v>86</v>
       </c>
       <c r="C86">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D86" t="s">
         <v>88</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45468.89583333334</v>
+        <v>45496.89583333334</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45468.90625</v>
+        <v>45496.90625</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45468.91666666666</v>
+        <v>45496.91666666666</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45468.92708333334</v>
+        <v>45496.92708333334</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45468.9375</v>
+        <v>45496.9375</v>
       </c>
       <c r="B91">
         <v>91</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45468.94791666666</v>
+        <v>45496.94791666666</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45468.95833333334</v>
+        <v>45496.95833333334</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45468.96875</v>
+        <v>45496.96875</v>
       </c>
       <c r="B94">
         <v>94</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45468.97916666666</v>
+        <v>45496.97916666666</v>
       </c>
       <c r="B95">
         <v>95</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45468.98958333334</v>
+        <v>45496.98958333334</v>
       </c>
       <c r="B96">
         <v>96</v>

--- a/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
+++ b/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
@@ -28,289 +28,289 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>23.07.20241</t>
-  </si>
-  <si>
-    <t>23.07.20242</t>
-  </si>
-  <si>
-    <t>23.07.20243</t>
-  </si>
-  <si>
-    <t>23.07.20244</t>
-  </si>
-  <si>
-    <t>23.07.20245</t>
-  </si>
-  <si>
-    <t>23.07.20246</t>
-  </si>
-  <si>
-    <t>23.07.20247</t>
-  </si>
-  <si>
-    <t>23.07.20248</t>
-  </si>
-  <si>
-    <t>23.07.20249</t>
-  </si>
-  <si>
-    <t>23.07.202410</t>
-  </si>
-  <si>
-    <t>23.07.202411</t>
-  </si>
-  <si>
-    <t>23.07.202412</t>
-  </si>
-  <si>
-    <t>23.07.202414</t>
-  </si>
-  <si>
-    <t>23.07.202415</t>
-  </si>
-  <si>
-    <t>23.07.202416</t>
-  </si>
-  <si>
-    <t>23.07.202417</t>
-  </si>
-  <si>
-    <t>23.07.202418</t>
-  </si>
-  <si>
-    <t>23.07.202419</t>
-  </si>
-  <si>
-    <t>23.07.202420</t>
-  </si>
-  <si>
-    <t>23.07.202421</t>
-  </si>
-  <si>
-    <t>23.07.202422</t>
-  </si>
-  <si>
-    <t>23.07.202423</t>
-  </si>
-  <si>
-    <t>23.07.202424</t>
-  </si>
-  <si>
-    <t>23.07.202425</t>
-  </si>
-  <si>
-    <t>23.07.202426</t>
-  </si>
-  <si>
-    <t>23.07.202427</t>
-  </si>
-  <si>
-    <t>23.07.202428</t>
-  </si>
-  <si>
-    <t>23.07.202429</t>
-  </si>
-  <si>
-    <t>23.07.202430</t>
-  </si>
-  <si>
-    <t>23.07.202431</t>
-  </si>
-  <si>
-    <t>23.07.202432</t>
-  </si>
-  <si>
-    <t>23.07.202433</t>
-  </si>
-  <si>
-    <t>23.07.202434</t>
-  </si>
-  <si>
-    <t>23.07.202435</t>
-  </si>
-  <si>
-    <t>23.07.202436</t>
-  </si>
-  <si>
-    <t>23.07.202437</t>
-  </si>
-  <si>
-    <t>23.07.202438</t>
-  </si>
-  <si>
-    <t>23.07.202439</t>
-  </si>
-  <si>
-    <t>23.07.202440</t>
-  </si>
-  <si>
-    <t>23.07.202441</t>
-  </si>
-  <si>
-    <t>23.07.202442</t>
-  </si>
-  <si>
-    <t>23.07.202443</t>
-  </si>
-  <si>
-    <t>23.07.202444</t>
-  </si>
-  <si>
-    <t>23.07.202445</t>
-  </si>
-  <si>
-    <t>23.07.202446</t>
-  </si>
-  <si>
-    <t>23.07.202447</t>
-  </si>
-  <si>
-    <t>23.07.202448</t>
-  </si>
-  <si>
-    <t>23.07.202449</t>
-  </si>
-  <si>
-    <t>23.07.202450</t>
-  </si>
-  <si>
-    <t>23.07.202451</t>
-  </si>
-  <si>
-    <t>23.07.202452</t>
-  </si>
-  <si>
-    <t>23.07.202453</t>
-  </si>
-  <si>
-    <t>23.07.202454</t>
-  </si>
-  <si>
-    <t>23.07.202455</t>
-  </si>
-  <si>
-    <t>23.07.202456</t>
-  </si>
-  <si>
-    <t>23.07.202457</t>
-  </si>
-  <si>
-    <t>23.07.202458</t>
-  </si>
-  <si>
-    <t>23.07.202459</t>
-  </si>
-  <si>
-    <t>23.07.202460</t>
-  </si>
-  <si>
-    <t>23.07.202461</t>
-  </si>
-  <si>
-    <t>23.07.202462</t>
-  </si>
-  <si>
-    <t>23.07.202463</t>
-  </si>
-  <si>
-    <t>23.07.202464</t>
-  </si>
-  <si>
-    <t>23.07.202465</t>
-  </si>
-  <si>
-    <t>23.07.202466</t>
-  </si>
-  <si>
-    <t>23.07.202467</t>
-  </si>
-  <si>
-    <t>23.07.202468</t>
-  </si>
-  <si>
-    <t>23.07.202469</t>
-  </si>
-  <si>
-    <t>23.07.202470</t>
-  </si>
-  <si>
-    <t>23.07.202471</t>
-  </si>
-  <si>
-    <t>23.07.202472</t>
-  </si>
-  <si>
-    <t>23.07.202473</t>
-  </si>
-  <si>
-    <t>23.07.202474</t>
-  </si>
-  <si>
-    <t>23.07.202475</t>
-  </si>
-  <si>
-    <t>23.07.202476</t>
-  </si>
-  <si>
-    <t>23.07.202477</t>
-  </si>
-  <si>
-    <t>23.07.202478</t>
-  </si>
-  <si>
-    <t>23.07.202479</t>
-  </si>
-  <si>
-    <t>23.07.202480</t>
-  </si>
-  <si>
-    <t>23.07.202481</t>
-  </si>
-  <si>
-    <t>23.07.202482</t>
-  </si>
-  <si>
-    <t>23.07.202483</t>
-  </si>
-  <si>
-    <t>23.07.202484</t>
-  </si>
-  <si>
-    <t>23.07.202485</t>
-  </si>
-  <si>
-    <t>23.07.202486</t>
-  </si>
-  <si>
-    <t>23.07.202487</t>
-  </si>
-  <si>
-    <t>23.07.202488</t>
-  </si>
-  <si>
-    <t>23.07.202489</t>
-  </si>
-  <si>
-    <t>23.07.202490</t>
-  </si>
-  <si>
-    <t>23.07.202491</t>
-  </si>
-  <si>
-    <t>23.07.202492</t>
-  </si>
-  <si>
-    <t>23.07.202493</t>
-  </si>
-  <si>
-    <t>23.07.202494</t>
-  </si>
-  <si>
-    <t>23.07.202495</t>
-  </si>
-  <si>
-    <t>23.07.202496</t>
+    <t>30.07.20241</t>
+  </si>
+  <si>
+    <t>30.07.20242</t>
+  </si>
+  <si>
+    <t>30.07.20243</t>
+  </si>
+  <si>
+    <t>30.07.20244</t>
+  </si>
+  <si>
+    <t>30.07.20245</t>
+  </si>
+  <si>
+    <t>30.07.20246</t>
+  </si>
+  <si>
+    <t>30.07.20247</t>
+  </si>
+  <si>
+    <t>30.07.20248</t>
+  </si>
+  <si>
+    <t>30.07.20249</t>
+  </si>
+  <si>
+    <t>30.07.202410</t>
+  </si>
+  <si>
+    <t>30.07.202411</t>
+  </si>
+  <si>
+    <t>30.07.202412</t>
+  </si>
+  <si>
+    <t>30.07.202414</t>
+  </si>
+  <si>
+    <t>30.07.202415</t>
+  </si>
+  <si>
+    <t>30.07.202416</t>
+  </si>
+  <si>
+    <t>30.07.202417</t>
+  </si>
+  <si>
+    <t>30.07.202418</t>
+  </si>
+  <si>
+    <t>30.07.202419</t>
+  </si>
+  <si>
+    <t>30.07.202420</t>
+  </si>
+  <si>
+    <t>30.07.202421</t>
+  </si>
+  <si>
+    <t>30.07.202422</t>
+  </si>
+  <si>
+    <t>30.07.202423</t>
+  </si>
+  <si>
+    <t>30.07.202424</t>
+  </si>
+  <si>
+    <t>30.07.202425</t>
+  </si>
+  <si>
+    <t>30.07.202426</t>
+  </si>
+  <si>
+    <t>30.07.202427</t>
+  </si>
+  <si>
+    <t>30.07.202428</t>
+  </si>
+  <si>
+    <t>30.07.202429</t>
+  </si>
+  <si>
+    <t>30.07.202430</t>
+  </si>
+  <si>
+    <t>30.07.202431</t>
+  </si>
+  <si>
+    <t>30.07.202432</t>
+  </si>
+  <si>
+    <t>30.07.202433</t>
+  </si>
+  <si>
+    <t>30.07.202434</t>
+  </si>
+  <si>
+    <t>30.07.202435</t>
+  </si>
+  <si>
+    <t>30.07.202436</t>
+  </si>
+  <si>
+    <t>30.07.202437</t>
+  </si>
+  <si>
+    <t>30.07.202438</t>
+  </si>
+  <si>
+    <t>30.07.202439</t>
+  </si>
+  <si>
+    <t>30.07.202440</t>
+  </si>
+  <si>
+    <t>30.07.202441</t>
+  </si>
+  <si>
+    <t>30.07.202442</t>
+  </si>
+  <si>
+    <t>30.07.202443</t>
+  </si>
+  <si>
+    <t>30.07.202444</t>
+  </si>
+  <si>
+    <t>30.07.202445</t>
+  </si>
+  <si>
+    <t>30.07.202446</t>
+  </si>
+  <si>
+    <t>30.07.202447</t>
+  </si>
+  <si>
+    <t>30.07.202448</t>
+  </si>
+  <si>
+    <t>30.07.202449</t>
+  </si>
+  <si>
+    <t>30.07.202450</t>
+  </si>
+  <si>
+    <t>30.07.202451</t>
+  </si>
+  <si>
+    <t>30.07.202452</t>
+  </si>
+  <si>
+    <t>30.07.202453</t>
+  </si>
+  <si>
+    <t>30.07.202454</t>
+  </si>
+  <si>
+    <t>30.07.202455</t>
+  </si>
+  <si>
+    <t>30.07.202456</t>
+  </si>
+  <si>
+    <t>30.07.202457</t>
+  </si>
+  <si>
+    <t>30.07.202458</t>
+  </si>
+  <si>
+    <t>30.07.202459</t>
+  </si>
+  <si>
+    <t>30.07.202460</t>
+  </si>
+  <si>
+    <t>30.07.202461</t>
+  </si>
+  <si>
+    <t>30.07.202462</t>
+  </si>
+  <si>
+    <t>30.07.202463</t>
+  </si>
+  <si>
+    <t>30.07.202464</t>
+  </si>
+  <si>
+    <t>30.07.202465</t>
+  </si>
+  <si>
+    <t>30.07.202466</t>
+  </si>
+  <si>
+    <t>30.07.202467</t>
+  </si>
+  <si>
+    <t>30.07.202468</t>
+  </si>
+  <si>
+    <t>30.07.202469</t>
+  </si>
+  <si>
+    <t>30.07.202470</t>
+  </si>
+  <si>
+    <t>30.07.202471</t>
+  </si>
+  <si>
+    <t>30.07.202472</t>
+  </si>
+  <si>
+    <t>30.07.202473</t>
+  </si>
+  <si>
+    <t>30.07.202474</t>
+  </si>
+  <si>
+    <t>30.07.202475</t>
+  </si>
+  <si>
+    <t>30.07.202476</t>
+  </si>
+  <si>
+    <t>30.07.202477</t>
+  </si>
+  <si>
+    <t>30.07.202478</t>
+  </si>
+  <si>
+    <t>30.07.202479</t>
+  </si>
+  <si>
+    <t>30.07.202480</t>
+  </si>
+  <si>
+    <t>30.07.202481</t>
+  </si>
+  <si>
+    <t>30.07.202482</t>
+  </si>
+  <si>
+    <t>30.07.202483</t>
+  </si>
+  <si>
+    <t>30.07.202484</t>
+  </si>
+  <si>
+    <t>30.07.202485</t>
+  </si>
+  <si>
+    <t>30.07.202486</t>
+  </si>
+  <si>
+    <t>30.07.202487</t>
+  </si>
+  <si>
+    <t>30.07.202488</t>
+  </si>
+  <si>
+    <t>30.07.202489</t>
+  </si>
+  <si>
+    <t>30.07.202490</t>
+  </si>
+  <si>
+    <t>30.07.202491</t>
+  </si>
+  <si>
+    <t>30.07.202492</t>
+  </si>
+  <si>
+    <t>30.07.202493</t>
+  </si>
+  <si>
+    <t>30.07.202494</t>
+  </si>
+  <si>
+    <t>30.07.202495</t>
+  </si>
+  <si>
+    <t>30.07.202496</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45496</v>
+        <v>45503</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45496.01041666666</v>
+        <v>45503.01041666666</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45496.02083333334</v>
+        <v>45503.02083333334</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45496.03125</v>
+        <v>45503.03125</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45496.04166666666</v>
+        <v>45503.04166666666</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45496.05208333334</v>
+        <v>45503.05208333334</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45496.0625</v>
+        <v>45503.0625</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45496.07291666666</v>
+        <v>45503.07291666666</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45496.08333333334</v>
+        <v>45503.08333333334</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45496.09375</v>
+        <v>45503.09375</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45496.10416666666</v>
+        <v>45503.10416666666</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45496.11458333334</v>
+        <v>45503.11458333334</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45496.13541666666</v>
+        <v>45503.13541666666</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45496.14583333334</v>
+        <v>45503.14583333334</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45496.15625</v>
+        <v>45503.15625</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45496.16666666666</v>
+        <v>45503.16666666666</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45496.17708333334</v>
+        <v>45503.17708333334</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45496.1875</v>
+        <v>45503.1875</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45496.19791666666</v>
+        <v>45503.19791666666</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45496.20833333334</v>
+        <v>45503.20833333334</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45496.21875</v>
+        <v>45503.21875</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45496.22916666666</v>
+        <v>45503.22916666666</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45496.23958333334</v>
+        <v>45503.23958333334</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45496.25</v>
+        <v>45503.25</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45496.26041666666</v>
+        <v>45503.26041666666</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45496.27083333334</v>
+        <v>45503.27083333334</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45496.28125</v>
+        <v>45503.28125</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45496.29166666666</v>
+        <v>45503.29166666666</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.014</v>
+        <v>0.016</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45496.30208333334</v>
+        <v>45503.30208333334</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45496.3125</v>
+        <v>45503.3125</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45496.32291666666</v>
+        <v>45503.32291666666</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.08699999999999999</v>
+        <v>0.083</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -1128,13 +1128,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45496.33333333334</v>
+        <v>45503.33333333334</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.124</v>
+        <v>0.121</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45496.34375</v>
+        <v>45503.34375</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.166</v>
+        <v>0.165</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45496.35416666666</v>
+        <v>45503.35416666666</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.21</v>
+        <v>0.211</v>
       </c>
       <c r="D35" t="s">
         <v>37</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45496.36458333334</v>
+        <v>45503.36458333334</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.255</v>
+        <v>0.258</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45496.375</v>
+        <v>45503.375</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.298</v>
+        <v>0.307</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45496.38541666666</v>
+        <v>45503.38541666666</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.342</v>
+        <v>0.354</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45496.39583333334</v>
+        <v>45503.39583333334</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.383</v>
+        <v>0.4</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45496.40625</v>
+        <v>45503.40625</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.449</v>
+        <v>0.443</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45496.41666666666</v>
+        <v>45503.41666666666</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.52</v>
+        <v>0.483</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45496.42708333334</v>
+        <v>45503.42708333334</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.584</v>
+        <v>0.522</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45496.4375</v>
+        <v>45503.4375</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.616</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45496.44791666666</v>
+        <v>45503.44791666666</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.641</v>
+        <v>0.585</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45496.45833333334</v>
+        <v>45503.45833333334</v>
       </c>
       <c r="B45">
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.68</v>
+        <v>0.629</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45496.46875</v>
+        <v>45503.46875</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.697</v>
+        <v>0.662</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45496.47916666666</v>
+        <v>45503.47916666666</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.706</v>
+        <v>0.694</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45496.48958333334</v>
+        <v>45503.48958333334</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.717</v>
+        <v>0.694</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45496.5</v>
+        <v>45503.5</v>
       </c>
       <c r="B49">
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.732</v>
+        <v>0.712</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45496.51041666666</v>
+        <v>45503.51041666666</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.733</v>
+        <v>0.725</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45496.52083333334</v>
+        <v>45503.52083333334</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.733</v>
+        <v>0.725</v>
       </c>
       <c r="D51" t="s">
         <v>53</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45496.53125</v>
+        <v>45503.53125</v>
       </c>
       <c r="B52">
         <v>52</v>
       </c>
       <c r="C52">
-        <v>0.733</v>
+        <v>0.725</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45496.54166666666</v>
+        <v>45503.54166666666</v>
       </c>
       <c r="B53">
         <v>53</v>
       </c>
       <c r="C53">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45496.55208333334</v>
+        <v>45503.55208333334</v>
       </c>
       <c r="B54">
         <v>54</v>
       </c>
       <c r="C54">
-        <v>0.727</v>
+        <v>0.725</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45496.5625</v>
+        <v>45503.5625</v>
       </c>
       <c r="B55">
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0.724</v>
+        <v>0.723</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45496.57291666666</v>
+        <v>45503.57291666666</v>
       </c>
       <c r="B56">
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.715</v>
+        <v>0.723</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45496.58333333334</v>
+        <v>45503.58333333334</v>
       </c>
       <c r="B57">
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="D57" t="s">
         <v>59</v>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45496.59375</v>
+        <v>45503.59375</v>
       </c>
       <c r="B58">
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.703</v>
+        <v>0.713</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45496.60416666666</v>
+        <v>45503.60416666666</v>
       </c>
       <c r="B59">
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.6830000000000001</v>
+        <v>0.713</v>
       </c>
       <c r="D59" t="s">
         <v>61</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45496.61458333334</v>
+        <v>45503.61458333334</v>
       </c>
       <c r="B60">
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.672</v>
+        <v>0.7</v>
       </c>
       <c r="D60" t="s">
         <v>62</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45496.625</v>
+        <v>45503.625</v>
       </c>
       <c r="B61">
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.672</v>
+        <v>0.675</v>
       </c>
       <c r="D61" t="s">
         <v>63</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45496.63541666666</v>
+        <v>45503.63541666666</v>
       </c>
       <c r="B62">
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.662</v>
+        <v>0.667</v>
       </c>
       <c r="D62" t="s">
         <v>64</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45496.64583333334</v>
+        <v>45503.64583333334</v>
       </c>
       <c r="B63">
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.622</v>
+        <v>0.664</v>
       </c>
       <c r="D63" t="s">
         <v>65</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45496.65625</v>
+        <v>45503.65625</v>
       </c>
       <c r="B64">
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0.587</v>
+        <v>0.655</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45496.66666666666</v>
+        <v>45503.66666666666</v>
       </c>
       <c r="B65">
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.554</v>
+        <v>0.633</v>
       </c>
       <c r="D65" t="s">
         <v>67</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45496.67708333334</v>
+        <v>45503.67708333334</v>
       </c>
       <c r="B66">
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.534</v>
+        <v>0.604</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45496.6875</v>
+        <v>45503.6875</v>
       </c>
       <c r="B67">
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0.501</v>
+        <v>0.572</v>
       </c>
       <c r="D67" t="s">
         <v>69</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45496.69791666666</v>
+        <v>45503.69791666666</v>
       </c>
       <c r="B68">
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0.458</v>
+        <v>0.545</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45496.70833333334</v>
+        <v>45503.70833333334</v>
       </c>
       <c r="B69">
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0.416</v>
+        <v>0.506</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45496.71875</v>
+        <v>45503.71875</v>
       </c>
       <c r="B70">
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0.37</v>
+        <v>0.464</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45496.72916666666</v>
+        <v>45503.72916666666</v>
       </c>
       <c r="B71">
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0.324</v>
+        <v>0.403</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45496.73958333334</v>
+        <v>45503.73958333334</v>
       </c>
       <c r="B72">
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.307</v>
+        <v>0.344</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45496.75</v>
+        <v>45503.75</v>
       </c>
       <c r="B73">
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0.283</v>
+        <v>0.312</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45496.76041666666</v>
+        <v>45503.76041666666</v>
       </c>
       <c r="B74">
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0.257</v>
+        <v>0.275</v>
       </c>
       <c r="D74" t="s">
         <v>76</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45496.77083333334</v>
+        <v>45503.77083333334</v>
       </c>
       <c r="B75">
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.212</v>
+        <v>0.23</v>
       </c>
       <c r="D75" t="s">
         <v>77</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45496.78125</v>
+        <v>45503.78125</v>
       </c>
       <c r="B76">
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0.163</v>
+        <v>0.181</v>
       </c>
       <c r="D76" t="s">
         <v>78</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45496.79166666666</v>
+        <v>45503.79166666666</v>
       </c>
       <c r="B77">
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0.144</v>
+        <v>0.148</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45496.80208333334</v>
+        <v>45503.80208333334</v>
       </c>
       <c r="B78">
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0.117</v>
+        <v>0.119</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45496.8125</v>
+        <v>45503.8125</v>
       </c>
       <c r="B79">
         <v>79</v>
       </c>
       <c r="C79">
-        <v>0.098</v>
+        <v>0.091</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45496.82291666666</v>
+        <v>45503.82291666666</v>
       </c>
       <c r="B80">
         <v>80</v>
       </c>
       <c r="C80">
-        <v>0.08599999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="D80" t="s">
         <v>82</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45496.83333333334</v>
+        <v>45503.83333333334</v>
       </c>
       <c r="B81">
         <v>81</v>
       </c>
       <c r="C81">
-        <v>0.067</v>
+        <v>0.061</v>
       </c>
       <c r="D81" t="s">
         <v>83</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45496.84375</v>
+        <v>45503.84375</v>
       </c>
       <c r="B82">
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="D82" t="s">
         <v>84</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45496.85416666666</v>
+        <v>45503.85416666666</v>
       </c>
       <c r="B83">
         <v>83</v>
       </c>
       <c r="C83">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="D83" t="s">
         <v>85</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45496.86458333334</v>
+        <v>45503.86458333334</v>
       </c>
       <c r="B84">
         <v>84</v>
       </c>
       <c r="C84">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="D84" t="s">
         <v>86</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45496.875</v>
+        <v>45503.875</v>
       </c>
       <c r="B85">
         <v>85</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45496.88541666666</v>
+        <v>45503.88541666666</v>
       </c>
       <c r="B86">
         <v>86</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45496.89583333334</v>
+        <v>45503.89583333334</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45496.90625</v>
+        <v>45503.90625</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45496.91666666666</v>
+        <v>45503.91666666666</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45496.92708333334</v>
+        <v>45503.92708333334</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45496.9375</v>
+        <v>45503.9375</v>
       </c>
       <c r="B91">
         <v>91</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45496.94791666666</v>
+        <v>45503.94791666666</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45496.95833333334</v>
+        <v>45503.95833333334</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45496.96875</v>
+        <v>45503.96875</v>
       </c>
       <c r="B94">
         <v>94</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45496.97916666666</v>
+        <v>45503.97916666666</v>
       </c>
       <c r="B95">
         <v>95</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45496.98958333334</v>
+        <v>45503.98958333334</v>
       </c>
       <c r="B96">
         <v>96</v>

--- a/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
+++ b/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
@@ -28,289 +28,289 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>30.07.20241</t>
-  </si>
-  <si>
-    <t>30.07.20242</t>
-  </si>
-  <si>
-    <t>30.07.20243</t>
-  </si>
-  <si>
-    <t>30.07.20244</t>
-  </si>
-  <si>
-    <t>30.07.20245</t>
-  </si>
-  <si>
-    <t>30.07.20246</t>
-  </si>
-  <si>
-    <t>30.07.20247</t>
-  </si>
-  <si>
-    <t>30.07.20248</t>
-  </si>
-  <si>
-    <t>30.07.20249</t>
-  </si>
-  <si>
-    <t>30.07.202410</t>
-  </si>
-  <si>
-    <t>30.07.202411</t>
-  </si>
-  <si>
-    <t>30.07.202412</t>
-  </si>
-  <si>
-    <t>30.07.202414</t>
-  </si>
-  <si>
-    <t>30.07.202415</t>
-  </si>
-  <si>
-    <t>30.07.202416</t>
-  </si>
-  <si>
-    <t>30.07.202417</t>
-  </si>
-  <si>
-    <t>30.07.202418</t>
-  </si>
-  <si>
-    <t>30.07.202419</t>
-  </si>
-  <si>
-    <t>30.07.202420</t>
-  </si>
-  <si>
-    <t>30.07.202421</t>
-  </si>
-  <si>
-    <t>30.07.202422</t>
-  </si>
-  <si>
-    <t>30.07.202423</t>
-  </si>
-  <si>
-    <t>30.07.202424</t>
-  </si>
-  <si>
-    <t>30.07.202425</t>
-  </si>
-  <si>
-    <t>30.07.202426</t>
-  </si>
-  <si>
-    <t>30.07.202427</t>
-  </si>
-  <si>
-    <t>30.07.202428</t>
-  </si>
-  <si>
-    <t>30.07.202429</t>
-  </si>
-  <si>
-    <t>30.07.202430</t>
-  </si>
-  <si>
-    <t>30.07.202431</t>
-  </si>
-  <si>
-    <t>30.07.202432</t>
-  </si>
-  <si>
-    <t>30.07.202433</t>
-  </si>
-  <si>
-    <t>30.07.202434</t>
-  </si>
-  <si>
-    <t>30.07.202435</t>
-  </si>
-  <si>
-    <t>30.07.202436</t>
-  </si>
-  <si>
-    <t>30.07.202437</t>
-  </si>
-  <si>
-    <t>30.07.202438</t>
-  </si>
-  <si>
-    <t>30.07.202439</t>
-  </si>
-  <si>
-    <t>30.07.202440</t>
-  </si>
-  <si>
-    <t>30.07.202441</t>
-  </si>
-  <si>
-    <t>30.07.202442</t>
-  </si>
-  <si>
-    <t>30.07.202443</t>
-  </si>
-  <si>
-    <t>30.07.202444</t>
-  </si>
-  <si>
-    <t>30.07.202445</t>
-  </si>
-  <si>
-    <t>30.07.202446</t>
-  </si>
-  <si>
-    <t>30.07.202447</t>
-  </si>
-  <si>
-    <t>30.07.202448</t>
-  </si>
-  <si>
-    <t>30.07.202449</t>
-  </si>
-  <si>
-    <t>30.07.202450</t>
-  </si>
-  <si>
-    <t>30.07.202451</t>
-  </si>
-  <si>
-    <t>30.07.202452</t>
-  </si>
-  <si>
-    <t>30.07.202453</t>
-  </si>
-  <si>
-    <t>30.07.202454</t>
-  </si>
-  <si>
-    <t>30.07.202455</t>
-  </si>
-  <si>
-    <t>30.07.202456</t>
-  </si>
-  <si>
-    <t>30.07.202457</t>
-  </si>
-  <si>
-    <t>30.07.202458</t>
-  </si>
-  <si>
-    <t>30.07.202459</t>
-  </si>
-  <si>
-    <t>30.07.202460</t>
-  </si>
-  <si>
-    <t>30.07.202461</t>
-  </si>
-  <si>
-    <t>30.07.202462</t>
-  </si>
-  <si>
-    <t>30.07.202463</t>
-  </si>
-  <si>
-    <t>30.07.202464</t>
-  </si>
-  <si>
-    <t>30.07.202465</t>
-  </si>
-  <si>
-    <t>30.07.202466</t>
-  </si>
-  <si>
-    <t>30.07.202467</t>
-  </si>
-  <si>
-    <t>30.07.202468</t>
-  </si>
-  <si>
-    <t>30.07.202469</t>
-  </si>
-  <si>
-    <t>30.07.202470</t>
-  </si>
-  <si>
-    <t>30.07.202471</t>
-  </si>
-  <si>
-    <t>30.07.202472</t>
-  </si>
-  <si>
-    <t>30.07.202473</t>
-  </si>
-  <si>
-    <t>30.07.202474</t>
-  </si>
-  <si>
-    <t>30.07.202475</t>
-  </si>
-  <si>
-    <t>30.07.202476</t>
-  </si>
-  <si>
-    <t>30.07.202477</t>
-  </si>
-  <si>
-    <t>30.07.202478</t>
-  </si>
-  <si>
-    <t>30.07.202479</t>
-  </si>
-  <si>
-    <t>30.07.202480</t>
-  </si>
-  <si>
-    <t>30.07.202481</t>
-  </si>
-  <si>
-    <t>30.07.202482</t>
-  </si>
-  <si>
-    <t>30.07.202483</t>
-  </si>
-  <si>
-    <t>30.07.202484</t>
-  </si>
-  <si>
-    <t>30.07.202485</t>
-  </si>
-  <si>
-    <t>30.07.202486</t>
-  </si>
-  <si>
-    <t>30.07.202487</t>
-  </si>
-  <si>
-    <t>30.07.202488</t>
-  </si>
-  <si>
-    <t>30.07.202489</t>
-  </si>
-  <si>
-    <t>30.07.202490</t>
-  </si>
-  <si>
-    <t>30.07.202491</t>
-  </si>
-  <si>
-    <t>30.07.202492</t>
-  </si>
-  <si>
-    <t>30.07.202493</t>
-  </si>
-  <si>
-    <t>30.07.202494</t>
-  </si>
-  <si>
-    <t>30.07.202495</t>
-  </si>
-  <si>
-    <t>30.07.202496</t>
+    <t>29.08.20241</t>
+  </si>
+  <si>
+    <t>29.08.20242</t>
+  </si>
+  <si>
+    <t>29.08.20243</t>
+  </si>
+  <si>
+    <t>29.08.20244</t>
+  </si>
+  <si>
+    <t>29.08.20245</t>
+  </si>
+  <si>
+    <t>29.08.20246</t>
+  </si>
+  <si>
+    <t>29.08.20247</t>
+  </si>
+  <si>
+    <t>29.08.20248</t>
+  </si>
+  <si>
+    <t>29.08.20249</t>
+  </si>
+  <si>
+    <t>29.08.202410</t>
+  </si>
+  <si>
+    <t>29.08.202411</t>
+  </si>
+  <si>
+    <t>29.08.202412</t>
+  </si>
+  <si>
+    <t>29.08.202414</t>
+  </si>
+  <si>
+    <t>29.08.202415</t>
+  </si>
+  <si>
+    <t>29.08.202416</t>
+  </si>
+  <si>
+    <t>29.08.202417</t>
+  </si>
+  <si>
+    <t>29.08.202418</t>
+  </si>
+  <si>
+    <t>29.08.202419</t>
+  </si>
+  <si>
+    <t>29.08.202420</t>
+  </si>
+  <si>
+    <t>29.08.202421</t>
+  </si>
+  <si>
+    <t>29.08.202422</t>
+  </si>
+  <si>
+    <t>29.08.202423</t>
+  </si>
+  <si>
+    <t>29.08.202424</t>
+  </si>
+  <si>
+    <t>29.08.202425</t>
+  </si>
+  <si>
+    <t>29.08.202426</t>
+  </si>
+  <si>
+    <t>29.08.202427</t>
+  </si>
+  <si>
+    <t>29.08.202428</t>
+  </si>
+  <si>
+    <t>29.08.202429</t>
+  </si>
+  <si>
+    <t>29.08.202430</t>
+  </si>
+  <si>
+    <t>29.08.202431</t>
+  </si>
+  <si>
+    <t>29.08.202432</t>
+  </si>
+  <si>
+    <t>29.08.202433</t>
+  </si>
+  <si>
+    <t>29.08.202434</t>
+  </si>
+  <si>
+    <t>29.08.202435</t>
+  </si>
+  <si>
+    <t>29.08.202436</t>
+  </si>
+  <si>
+    <t>29.08.202437</t>
+  </si>
+  <si>
+    <t>29.08.202438</t>
+  </si>
+  <si>
+    <t>29.08.202439</t>
+  </si>
+  <si>
+    <t>29.08.202440</t>
+  </si>
+  <si>
+    <t>29.08.202441</t>
+  </si>
+  <si>
+    <t>29.08.202442</t>
+  </si>
+  <si>
+    <t>29.08.202443</t>
+  </si>
+  <si>
+    <t>29.08.202444</t>
+  </si>
+  <si>
+    <t>29.08.202445</t>
+  </si>
+  <si>
+    <t>29.08.202446</t>
+  </si>
+  <si>
+    <t>29.08.202447</t>
+  </si>
+  <si>
+    <t>29.08.202448</t>
+  </si>
+  <si>
+    <t>29.08.202449</t>
+  </si>
+  <si>
+    <t>29.08.202450</t>
+  </si>
+  <si>
+    <t>29.08.202451</t>
+  </si>
+  <si>
+    <t>29.08.202452</t>
+  </si>
+  <si>
+    <t>29.08.202453</t>
+  </si>
+  <si>
+    <t>29.08.202454</t>
+  </si>
+  <si>
+    <t>29.08.202455</t>
+  </si>
+  <si>
+    <t>29.08.202456</t>
+  </si>
+  <si>
+    <t>29.08.202457</t>
+  </si>
+  <si>
+    <t>29.08.202458</t>
+  </si>
+  <si>
+    <t>29.08.202459</t>
+  </si>
+  <si>
+    <t>29.08.202460</t>
+  </si>
+  <si>
+    <t>29.08.202461</t>
+  </si>
+  <si>
+    <t>29.08.202462</t>
+  </si>
+  <si>
+    <t>29.08.202463</t>
+  </si>
+  <si>
+    <t>29.08.202464</t>
+  </si>
+  <si>
+    <t>29.08.202465</t>
+  </si>
+  <si>
+    <t>29.08.202466</t>
+  </si>
+  <si>
+    <t>29.08.202467</t>
+  </si>
+  <si>
+    <t>29.08.202468</t>
+  </si>
+  <si>
+    <t>29.08.202469</t>
+  </si>
+  <si>
+    <t>29.08.202470</t>
+  </si>
+  <si>
+    <t>29.08.202471</t>
+  </si>
+  <si>
+    <t>29.08.202472</t>
+  </si>
+  <si>
+    <t>29.08.202473</t>
+  </si>
+  <si>
+    <t>29.08.202474</t>
+  </si>
+  <si>
+    <t>29.08.202475</t>
+  </si>
+  <si>
+    <t>29.08.202476</t>
+  </si>
+  <si>
+    <t>29.08.202477</t>
+  </si>
+  <si>
+    <t>29.08.202478</t>
+  </si>
+  <si>
+    <t>29.08.202479</t>
+  </si>
+  <si>
+    <t>29.08.202480</t>
+  </si>
+  <si>
+    <t>29.08.202481</t>
+  </si>
+  <si>
+    <t>29.08.202482</t>
+  </si>
+  <si>
+    <t>29.08.202483</t>
+  </si>
+  <si>
+    <t>29.08.202484</t>
+  </si>
+  <si>
+    <t>29.08.202485</t>
+  </si>
+  <si>
+    <t>29.08.202486</t>
+  </si>
+  <si>
+    <t>29.08.202487</t>
+  </si>
+  <si>
+    <t>29.08.202488</t>
+  </si>
+  <si>
+    <t>29.08.202489</t>
+  </si>
+  <si>
+    <t>29.08.202490</t>
+  </si>
+  <si>
+    <t>29.08.202491</t>
+  </si>
+  <si>
+    <t>29.08.202492</t>
+  </si>
+  <si>
+    <t>29.08.202493</t>
+  </si>
+  <si>
+    <t>29.08.202494</t>
+  </si>
+  <si>
+    <t>29.08.202495</t>
+  </si>
+  <si>
+    <t>29.08.202496</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45503</v>
+        <v>45533</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45503.01041666666</v>
+        <v>45533.01041666666</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45503.02083333334</v>
+        <v>45533.02083333334</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45503.03125</v>
+        <v>45533.03125</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45503.04166666666</v>
+        <v>45533.04166666666</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45503.05208333334</v>
+        <v>45533.05208333334</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45503.0625</v>
+        <v>45533.0625</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45503.07291666666</v>
+        <v>45533.07291666666</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45503.08333333334</v>
+        <v>45533.08333333334</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45503.09375</v>
+        <v>45533.09375</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45503.10416666666</v>
+        <v>45533.10416666666</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45503.11458333334</v>
+        <v>45533.11458333334</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45503.13541666666</v>
+        <v>45533.13541666666</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45503.14583333334</v>
+        <v>45533.14583333334</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45503.15625</v>
+        <v>45533.15625</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45503.16666666666</v>
+        <v>45533.16666666666</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45503.17708333334</v>
+        <v>45533.17708333334</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45503.1875</v>
+        <v>45533.1875</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45503.19791666666</v>
+        <v>45533.19791666666</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45503.20833333334</v>
+        <v>45533.20833333334</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45503.21875</v>
+        <v>45533.21875</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45503.22916666666</v>
+        <v>45533.22916666666</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45503.23958333334</v>
+        <v>45533.23958333334</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45503.25</v>
+        <v>45533.25</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45503.26041666666</v>
+        <v>45533.26041666666</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45503.27083333334</v>
+        <v>45533.27083333334</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45503.28125</v>
+        <v>45533.28125</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -1072,13 +1072,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45503.29166666666</v>
+        <v>45533.29166666666</v>
       </c>
       <c r="B29">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.016</v>
+        <v>0</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45503.30208333334</v>
+        <v>45533.30208333334</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
         <v>32</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45503.3125</v>
+        <v>45533.3125</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.053</v>
+        <v>0.011</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45503.32291666666</v>
+        <v>45533.32291666666</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.083</v>
+        <v>0.015</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -1128,13 +1128,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45503.33333333334</v>
+        <v>45533.33333333334</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.121</v>
+        <v>0.028</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45503.34375</v>
+        <v>45533.34375</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.165</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45503.35416666666</v>
+        <v>45533.35416666666</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.211</v>
+        <v>0.137</v>
       </c>
       <c r="D35" t="s">
         <v>37</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45503.36458333334</v>
+        <v>45533.36458333334</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.258</v>
+        <v>0.204</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45503.375</v>
+        <v>45533.375</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.307</v>
+        <v>0.26</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45503.38541666666</v>
+        <v>45533.38541666666</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.354</v>
+        <v>0.297</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45503.39583333334</v>
+        <v>45533.39583333334</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.4</v>
+        <v>0.354</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45503.40625</v>
+        <v>45533.40625</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.443</v>
+        <v>0.397</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45503.41666666666</v>
+        <v>45533.41666666666</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.483</v>
+        <v>0.378</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45503.42708333334</v>
+        <v>45533.42708333334</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.522</v>
+        <v>0.45</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45503.4375</v>
+        <v>45533.4375</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.5580000000000001</v>
+        <v>0.492</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45503.44791666666</v>
+        <v>45533.44791666666</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.585</v>
+        <v>0.515</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45503.45833333334</v>
+        <v>45533.45833333334</v>
       </c>
       <c r="B45">
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.629</v>
+        <v>0.529</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45503.46875</v>
+        <v>45533.46875</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.662</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45503.47916666666</v>
+        <v>45533.47916666666</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.694</v>
+        <v>0.594</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45503.48958333334</v>
+        <v>45533.48958333334</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.694</v>
+        <v>0.613</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45503.5</v>
+        <v>45533.5</v>
       </c>
       <c r="B49">
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.712</v>
+        <v>0.627</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45503.51041666666</v>
+        <v>45533.51041666666</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.725</v>
+        <v>0.629</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45503.52083333334</v>
+        <v>45533.52083333334</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.725</v>
+        <v>0.629</v>
       </c>
       <c r="D51" t="s">
         <v>53</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45503.53125</v>
+        <v>45533.53125</v>
       </c>
       <c r="B52">
         <v>52</v>
       </c>
       <c r="C52">
-        <v>0.725</v>
+        <v>0.629</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45503.54166666666</v>
+        <v>45533.54166666666</v>
       </c>
       <c r="B53">
         <v>53</v>
       </c>
       <c r="C53">
-        <v>0.725</v>
+        <v>0.623</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45503.55208333334</v>
+        <v>45533.55208333334</v>
       </c>
       <c r="B54">
         <v>54</v>
       </c>
       <c r="C54">
-        <v>0.725</v>
+        <v>0.617</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45503.5625</v>
+        <v>45533.5625</v>
       </c>
       <c r="B55">
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0.723</v>
+        <v>0.598</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45503.57291666666</v>
+        <v>45533.57291666666</v>
       </c>
       <c r="B56">
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.723</v>
+        <v>0.592</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45503.58333333334</v>
+        <v>45533.58333333334</v>
       </c>
       <c r="B57">
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.72</v>
+        <v>0.587</v>
       </c>
       <c r="D57" t="s">
         <v>59</v>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45503.59375</v>
+        <v>45533.59375</v>
       </c>
       <c r="B58">
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.713</v>
+        <v>0.583</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45503.60416666666</v>
+        <v>45533.60416666666</v>
       </c>
       <c r="B59">
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.713</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D59" t="s">
         <v>61</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45503.61458333334</v>
+        <v>45533.61458333334</v>
       </c>
       <c r="B60">
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.7</v>
+        <v>0.514</v>
       </c>
       <c r="D60" t="s">
         <v>62</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45503.625</v>
+        <v>45533.625</v>
       </c>
       <c r="B61">
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.675</v>
+        <v>0.504</v>
       </c>
       <c r="D61" t="s">
         <v>63</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45503.63541666666</v>
+        <v>45533.63541666666</v>
       </c>
       <c r="B62">
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.667</v>
+        <v>0.476</v>
       </c>
       <c r="D62" t="s">
         <v>64</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45503.64583333334</v>
+        <v>45533.64583333334</v>
       </c>
       <c r="B63">
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.664</v>
+        <v>0.455</v>
       </c>
       <c r="D63" t="s">
         <v>65</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45503.65625</v>
+        <v>45533.65625</v>
       </c>
       <c r="B64">
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0.655</v>
+        <v>0.45</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45503.66666666666</v>
+        <v>45533.66666666666</v>
       </c>
       <c r="B65">
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.633</v>
+        <v>0.446</v>
       </c>
       <c r="D65" t="s">
         <v>67</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45503.67708333334</v>
+        <v>45533.67708333334</v>
       </c>
       <c r="B66">
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.604</v>
+        <v>0.426</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45503.6875</v>
+        <v>45533.6875</v>
       </c>
       <c r="B67">
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0.572</v>
+        <v>0.403</v>
       </c>
       <c r="D67" t="s">
         <v>69</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45503.69791666666</v>
+        <v>45533.69791666666</v>
       </c>
       <c r="B68">
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0.545</v>
+        <v>0.337</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45503.70833333334</v>
+        <v>45533.70833333334</v>
       </c>
       <c r="B69">
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0.506</v>
+        <v>0.282</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45503.71875</v>
+        <v>45533.71875</v>
       </c>
       <c r="B70">
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0.464</v>
+        <v>0.247</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45503.72916666666</v>
+        <v>45533.72916666666</v>
       </c>
       <c r="B71">
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0.403</v>
+        <v>0.213</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45503.73958333334</v>
+        <v>45533.73958333334</v>
       </c>
       <c r="B72">
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.344</v>
+        <v>0.174</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45503.75</v>
+        <v>45533.75</v>
       </c>
       <c r="B73">
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0.312</v>
+        <v>0.143</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45503.76041666666</v>
+        <v>45533.76041666666</v>
       </c>
       <c r="B74">
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0.275</v>
+        <v>0.118</v>
       </c>
       <c r="D74" t="s">
         <v>76</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45503.77083333334</v>
+        <v>45533.77083333334</v>
       </c>
       <c r="B75">
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.23</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D75" t="s">
         <v>77</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45503.78125</v>
+        <v>45533.78125</v>
       </c>
       <c r="B76">
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0.181</v>
+        <v>0.068</v>
       </c>
       <c r="D76" t="s">
         <v>78</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45503.79166666666</v>
+        <v>45533.79166666666</v>
       </c>
       <c r="B77">
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0.148</v>
+        <v>0.058</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45503.80208333334</v>
+        <v>45533.80208333334</v>
       </c>
       <c r="B78">
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0.119</v>
+        <v>0.045</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45503.8125</v>
+        <v>45533.8125</v>
       </c>
       <c r="B79">
         <v>79</v>
       </c>
       <c r="C79">
-        <v>0.091</v>
+        <v>0.039</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45503.82291666666</v>
+        <v>45533.82291666666</v>
       </c>
       <c r="B80">
         <v>80</v>
       </c>
       <c r="C80">
-        <v>0.073</v>
+        <v>0.03</v>
       </c>
       <c r="D80" t="s">
         <v>82</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45503.83333333334</v>
+        <v>45533.83333333334</v>
       </c>
       <c r="B81">
         <v>81</v>
       </c>
       <c r="C81">
-        <v>0.061</v>
+        <v>0.021</v>
       </c>
       <c r="D81" t="s">
         <v>83</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45503.84375</v>
+        <v>45533.84375</v>
       </c>
       <c r="B82">
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0.048</v>
+        <v>0.013</v>
       </c>
       <c r="D82" t="s">
         <v>84</v>
@@ -1828,13 +1828,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45503.85416666666</v>
+        <v>45533.85416666666</v>
       </c>
       <c r="B83">
         <v>83</v>
       </c>
       <c r="C83">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
         <v>85</v>
@@ -1842,13 +1842,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45503.86458333334</v>
+        <v>45533.86458333334</v>
       </c>
       <c r="B84">
         <v>84</v>
       </c>
       <c r="C84">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
         <v>86</v>
@@ -1856,13 +1856,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45503.875</v>
+        <v>45533.875</v>
       </c>
       <c r="B85">
         <v>85</v>
       </c>
       <c r="C85">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="D85" t="s">
         <v>87</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45503.88541666666</v>
+        <v>45533.88541666666</v>
       </c>
       <c r="B86">
         <v>86</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45503.89583333334</v>
+        <v>45533.89583333334</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45503.90625</v>
+        <v>45533.90625</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45503.91666666666</v>
+        <v>45533.91666666666</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45503.92708333334</v>
+        <v>45533.92708333334</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45503.9375</v>
+        <v>45533.9375</v>
       </c>
       <c r="B91">
         <v>91</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45503.94791666666</v>
+        <v>45533.94791666666</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45503.95833333334</v>
+        <v>45533.95833333334</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45503.96875</v>
+        <v>45533.96875</v>
       </c>
       <c r="B94">
         <v>94</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45503.97916666666</v>
+        <v>45533.97916666666</v>
       </c>
       <c r="B95">
         <v>95</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45503.98958333334</v>
+        <v>45533.98958333334</v>
       </c>
       <c r="B96">
         <v>96</v>

--- a/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
+++ b/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
@@ -28,289 +28,289 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>29.08.20241</t>
-  </si>
-  <si>
-    <t>29.08.20242</t>
-  </si>
-  <si>
-    <t>29.08.20243</t>
-  </si>
-  <si>
-    <t>29.08.20244</t>
-  </si>
-  <si>
-    <t>29.08.20245</t>
-  </si>
-  <si>
-    <t>29.08.20246</t>
-  </si>
-  <si>
-    <t>29.08.20247</t>
-  </si>
-  <si>
-    <t>29.08.20248</t>
-  </si>
-  <si>
-    <t>29.08.20249</t>
-  </si>
-  <si>
-    <t>29.08.202410</t>
-  </si>
-  <si>
-    <t>29.08.202411</t>
-  </si>
-  <si>
-    <t>29.08.202412</t>
-  </si>
-  <si>
-    <t>29.08.202414</t>
-  </si>
-  <si>
-    <t>29.08.202415</t>
-  </si>
-  <si>
-    <t>29.08.202416</t>
-  </si>
-  <si>
-    <t>29.08.202417</t>
-  </si>
-  <si>
-    <t>29.08.202418</t>
-  </si>
-  <si>
-    <t>29.08.202419</t>
-  </si>
-  <si>
-    <t>29.08.202420</t>
-  </si>
-  <si>
-    <t>29.08.202421</t>
-  </si>
-  <si>
-    <t>29.08.202422</t>
-  </si>
-  <si>
-    <t>29.08.202423</t>
-  </si>
-  <si>
-    <t>29.08.202424</t>
-  </si>
-  <si>
-    <t>29.08.202425</t>
-  </si>
-  <si>
-    <t>29.08.202426</t>
-  </si>
-  <si>
-    <t>29.08.202427</t>
-  </si>
-  <si>
-    <t>29.08.202428</t>
-  </si>
-  <si>
-    <t>29.08.202429</t>
-  </si>
-  <si>
-    <t>29.08.202430</t>
-  </si>
-  <si>
-    <t>29.08.202431</t>
-  </si>
-  <si>
-    <t>29.08.202432</t>
-  </si>
-  <si>
-    <t>29.08.202433</t>
-  </si>
-  <si>
-    <t>29.08.202434</t>
-  </si>
-  <si>
-    <t>29.08.202435</t>
-  </si>
-  <si>
-    <t>29.08.202436</t>
-  </si>
-  <si>
-    <t>29.08.202437</t>
-  </si>
-  <si>
-    <t>29.08.202438</t>
-  </si>
-  <si>
-    <t>29.08.202439</t>
-  </si>
-  <si>
-    <t>29.08.202440</t>
-  </si>
-  <si>
-    <t>29.08.202441</t>
-  </si>
-  <si>
-    <t>29.08.202442</t>
-  </si>
-  <si>
-    <t>29.08.202443</t>
-  </si>
-  <si>
-    <t>29.08.202444</t>
-  </si>
-  <si>
-    <t>29.08.202445</t>
-  </si>
-  <si>
-    <t>29.08.202446</t>
-  </si>
-  <si>
-    <t>29.08.202447</t>
-  </si>
-  <si>
-    <t>29.08.202448</t>
-  </si>
-  <si>
-    <t>29.08.202449</t>
-  </si>
-  <si>
-    <t>29.08.202450</t>
-  </si>
-  <si>
-    <t>29.08.202451</t>
-  </si>
-  <si>
-    <t>29.08.202452</t>
-  </si>
-  <si>
-    <t>29.08.202453</t>
-  </si>
-  <si>
-    <t>29.08.202454</t>
-  </si>
-  <si>
-    <t>29.08.202455</t>
-  </si>
-  <si>
-    <t>29.08.202456</t>
-  </si>
-  <si>
-    <t>29.08.202457</t>
-  </si>
-  <si>
-    <t>29.08.202458</t>
-  </si>
-  <si>
-    <t>29.08.202459</t>
-  </si>
-  <si>
-    <t>29.08.202460</t>
-  </si>
-  <si>
-    <t>29.08.202461</t>
-  </si>
-  <si>
-    <t>29.08.202462</t>
-  </si>
-  <si>
-    <t>29.08.202463</t>
-  </si>
-  <si>
-    <t>29.08.202464</t>
-  </si>
-  <si>
-    <t>29.08.202465</t>
-  </si>
-  <si>
-    <t>29.08.202466</t>
-  </si>
-  <si>
-    <t>29.08.202467</t>
-  </si>
-  <si>
-    <t>29.08.202468</t>
-  </si>
-  <si>
-    <t>29.08.202469</t>
-  </si>
-  <si>
-    <t>29.08.202470</t>
-  </si>
-  <si>
-    <t>29.08.202471</t>
-  </si>
-  <si>
-    <t>29.08.202472</t>
-  </si>
-  <si>
-    <t>29.08.202473</t>
-  </si>
-  <si>
-    <t>29.08.202474</t>
-  </si>
-  <si>
-    <t>29.08.202475</t>
-  </si>
-  <si>
-    <t>29.08.202476</t>
-  </si>
-  <si>
-    <t>29.08.202477</t>
-  </si>
-  <si>
-    <t>29.08.202478</t>
-  </si>
-  <si>
-    <t>29.08.202479</t>
-  </si>
-  <si>
-    <t>29.08.202480</t>
-  </si>
-  <si>
-    <t>29.08.202481</t>
-  </si>
-  <si>
-    <t>29.08.202482</t>
-  </si>
-  <si>
-    <t>29.08.202483</t>
-  </si>
-  <si>
-    <t>29.08.202484</t>
-  </si>
-  <si>
-    <t>29.08.202485</t>
-  </si>
-  <si>
-    <t>29.08.202486</t>
-  </si>
-  <si>
-    <t>29.08.202487</t>
-  </si>
-  <si>
-    <t>29.08.202488</t>
-  </si>
-  <si>
-    <t>29.08.202489</t>
-  </si>
-  <si>
-    <t>29.08.202490</t>
-  </si>
-  <si>
-    <t>29.08.202491</t>
-  </si>
-  <si>
-    <t>29.08.202492</t>
-  </si>
-  <si>
-    <t>29.08.202493</t>
-  </si>
-  <si>
-    <t>29.08.202494</t>
-  </si>
-  <si>
-    <t>29.08.202495</t>
-  </si>
-  <si>
-    <t>29.08.202496</t>
+    <t>24.09.20241</t>
+  </si>
+  <si>
+    <t>24.09.20242</t>
+  </si>
+  <si>
+    <t>24.09.20243</t>
+  </si>
+  <si>
+    <t>24.09.20244</t>
+  </si>
+  <si>
+    <t>24.09.20245</t>
+  </si>
+  <si>
+    <t>24.09.20246</t>
+  </si>
+  <si>
+    <t>24.09.20247</t>
+  </si>
+  <si>
+    <t>24.09.20248</t>
+  </si>
+  <si>
+    <t>24.09.20249</t>
+  </si>
+  <si>
+    <t>24.09.202410</t>
+  </si>
+  <si>
+    <t>24.09.202411</t>
+  </si>
+  <si>
+    <t>24.09.202412</t>
+  </si>
+  <si>
+    <t>24.09.202414</t>
+  </si>
+  <si>
+    <t>24.09.202415</t>
+  </si>
+  <si>
+    <t>24.09.202416</t>
+  </si>
+  <si>
+    <t>24.09.202417</t>
+  </si>
+  <si>
+    <t>24.09.202418</t>
+  </si>
+  <si>
+    <t>24.09.202419</t>
+  </si>
+  <si>
+    <t>24.09.202420</t>
+  </si>
+  <si>
+    <t>24.09.202421</t>
+  </si>
+  <si>
+    <t>24.09.202422</t>
+  </si>
+  <si>
+    <t>24.09.202423</t>
+  </si>
+  <si>
+    <t>24.09.202424</t>
+  </si>
+  <si>
+    <t>24.09.202425</t>
+  </si>
+  <si>
+    <t>24.09.202426</t>
+  </si>
+  <si>
+    <t>24.09.202427</t>
+  </si>
+  <si>
+    <t>24.09.202428</t>
+  </si>
+  <si>
+    <t>24.09.202429</t>
+  </si>
+  <si>
+    <t>24.09.202430</t>
+  </si>
+  <si>
+    <t>24.09.202431</t>
+  </si>
+  <si>
+    <t>24.09.202432</t>
+  </si>
+  <si>
+    <t>24.09.202433</t>
+  </si>
+  <si>
+    <t>24.09.202434</t>
+  </si>
+  <si>
+    <t>24.09.202435</t>
+  </si>
+  <si>
+    <t>24.09.202436</t>
+  </si>
+  <si>
+    <t>24.09.202437</t>
+  </si>
+  <si>
+    <t>24.09.202438</t>
+  </si>
+  <si>
+    <t>24.09.202439</t>
+  </si>
+  <si>
+    <t>24.09.202440</t>
+  </si>
+  <si>
+    <t>24.09.202441</t>
+  </si>
+  <si>
+    <t>24.09.202442</t>
+  </si>
+  <si>
+    <t>24.09.202443</t>
+  </si>
+  <si>
+    <t>24.09.202444</t>
+  </si>
+  <si>
+    <t>24.09.202445</t>
+  </si>
+  <si>
+    <t>24.09.202446</t>
+  </si>
+  <si>
+    <t>24.09.202447</t>
+  </si>
+  <si>
+    <t>24.09.202448</t>
+  </si>
+  <si>
+    <t>24.09.202449</t>
+  </si>
+  <si>
+    <t>24.09.202450</t>
+  </si>
+  <si>
+    <t>24.09.202451</t>
+  </si>
+  <si>
+    <t>24.09.202452</t>
+  </si>
+  <si>
+    <t>24.09.202453</t>
+  </si>
+  <si>
+    <t>24.09.202454</t>
+  </si>
+  <si>
+    <t>24.09.202455</t>
+  </si>
+  <si>
+    <t>24.09.202456</t>
+  </si>
+  <si>
+    <t>24.09.202457</t>
+  </si>
+  <si>
+    <t>24.09.202458</t>
+  </si>
+  <si>
+    <t>24.09.202459</t>
+  </si>
+  <si>
+    <t>24.09.202460</t>
+  </si>
+  <si>
+    <t>24.09.202461</t>
+  </si>
+  <si>
+    <t>24.09.202462</t>
+  </si>
+  <si>
+    <t>24.09.202463</t>
+  </si>
+  <si>
+    <t>24.09.202464</t>
+  </si>
+  <si>
+    <t>24.09.202465</t>
+  </si>
+  <si>
+    <t>24.09.202466</t>
+  </si>
+  <si>
+    <t>24.09.202467</t>
+  </si>
+  <si>
+    <t>24.09.202468</t>
+  </si>
+  <si>
+    <t>24.09.202469</t>
+  </si>
+  <si>
+    <t>24.09.202470</t>
+  </si>
+  <si>
+    <t>24.09.202471</t>
+  </si>
+  <si>
+    <t>24.09.202472</t>
+  </si>
+  <si>
+    <t>24.09.202473</t>
+  </si>
+  <si>
+    <t>24.09.202474</t>
+  </si>
+  <si>
+    <t>24.09.202475</t>
+  </si>
+  <si>
+    <t>24.09.202476</t>
+  </si>
+  <si>
+    <t>24.09.202477</t>
+  </si>
+  <si>
+    <t>24.09.202478</t>
+  </si>
+  <si>
+    <t>24.09.202479</t>
+  </si>
+  <si>
+    <t>24.09.202480</t>
+  </si>
+  <si>
+    <t>24.09.202481</t>
+  </si>
+  <si>
+    <t>24.09.202482</t>
+  </si>
+  <si>
+    <t>24.09.202483</t>
+  </si>
+  <si>
+    <t>24.09.202484</t>
+  </si>
+  <si>
+    <t>24.09.202485</t>
+  </si>
+  <si>
+    <t>24.09.202486</t>
+  </si>
+  <si>
+    <t>24.09.202487</t>
+  </si>
+  <si>
+    <t>24.09.202488</t>
+  </si>
+  <si>
+    <t>24.09.202489</t>
+  </si>
+  <si>
+    <t>24.09.202490</t>
+  </si>
+  <si>
+    <t>24.09.202491</t>
+  </si>
+  <si>
+    <t>24.09.202492</t>
+  </si>
+  <si>
+    <t>24.09.202493</t>
+  </si>
+  <si>
+    <t>24.09.202494</t>
+  </si>
+  <si>
+    <t>24.09.202495</t>
+  </si>
+  <si>
+    <t>24.09.202496</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45533</v>
+        <v>45559</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45533.01041666666</v>
+        <v>45559.01041666666</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45533.02083333334</v>
+        <v>45559.02083333334</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45533.03125</v>
+        <v>45559.03125</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45533.04166666666</v>
+        <v>45559.04166666666</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45533.05208333334</v>
+        <v>45559.05208333334</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45533.0625</v>
+        <v>45559.0625</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45533.07291666666</v>
+        <v>45559.07291666666</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45533.08333333334</v>
+        <v>45559.08333333334</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45533.09375</v>
+        <v>45559.09375</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45533.10416666666</v>
+        <v>45559.10416666666</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45533.11458333334</v>
+        <v>45559.11458333334</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45533.13541666666</v>
+        <v>45559.13541666666</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45533.14583333334</v>
+        <v>45559.14583333334</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45533.15625</v>
+        <v>45559.15625</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45533.16666666666</v>
+        <v>45559.16666666666</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45533.17708333334</v>
+        <v>45559.17708333334</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45533.1875</v>
+        <v>45559.1875</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45533.19791666666</v>
+        <v>45559.19791666666</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45533.20833333334</v>
+        <v>45559.20833333334</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45533.21875</v>
+        <v>45559.21875</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45533.22916666666</v>
+        <v>45559.22916666666</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45533.23958333334</v>
+        <v>45559.23958333334</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45533.25</v>
+        <v>45559.25</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45533.26041666666</v>
+        <v>45559.26041666666</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45533.27083333334</v>
+        <v>45559.27083333334</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45533.28125</v>
+        <v>45559.28125</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45533.29166666666</v>
+        <v>45559.29166666666</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45533.30208333334</v>
+        <v>45559.30208333334</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45533.3125</v>
+        <v>45559.3125</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45533.32291666666</v>
+        <v>45559.32291666666</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.015</v>
+        <v>0.022</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -1128,13 +1128,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45533.33333333334</v>
+        <v>45559.33333333334</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.028</v>
+        <v>0.059</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45533.34375</v>
+        <v>45559.34375</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.07099999999999999</v>
+        <v>0.104</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45533.35416666666</v>
+        <v>45559.35416666666</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.137</v>
+        <v>0.156</v>
       </c>
       <c r="D35" t="s">
         <v>37</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45533.36458333334</v>
+        <v>45559.36458333334</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.204</v>
+        <v>0.212</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45533.375</v>
+        <v>45559.375</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.26</v>
+        <v>0.267</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45533.38541666666</v>
+        <v>45559.38541666666</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.297</v>
+        <v>0.322</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45533.39583333334</v>
+        <v>45559.39583333334</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.354</v>
+        <v>0.374</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45533.40625</v>
+        <v>45559.40625</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.397</v>
+        <v>0.424</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45533.41666666666</v>
+        <v>45559.41666666666</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.378</v>
+        <v>0.47</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45533.42708333334</v>
+        <v>45559.42708333334</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.45</v>
+        <v>0.511</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45533.4375</v>
+        <v>45559.4375</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.492</v>
+        <v>0.548</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45533.44791666666</v>
+        <v>45559.44791666666</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.515</v>
+        <v>0.582</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45533.45833333334</v>
+        <v>45559.45833333334</v>
       </c>
       <c r="B45">
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.529</v>
+        <v>0.612</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45533.46875</v>
+        <v>45559.46875</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.5649999999999999</v>
+        <v>0.638</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45533.47916666666</v>
+        <v>45559.47916666666</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.594</v>
+        <v>0.663</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45533.48958333334</v>
+        <v>45559.48958333334</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.613</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45533.5</v>
+        <v>45559.5</v>
       </c>
       <c r="B49">
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.627</v>
+        <v>0.705</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45533.51041666666</v>
+        <v>45559.51041666666</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.629</v>
+        <v>0.726</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45533.52083333334</v>
+        <v>45559.52083333334</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.629</v>
+        <v>0.739</v>
       </c>
       <c r="D51" t="s">
         <v>53</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45533.53125</v>
+        <v>45559.53125</v>
       </c>
       <c r="B52">
         <v>52</v>
       </c>
       <c r="C52">
-        <v>0.629</v>
+        <v>0.747</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45533.54166666666</v>
+        <v>45559.54166666666</v>
       </c>
       <c r="B53">
         <v>53</v>
       </c>
       <c r="C53">
-        <v>0.623</v>
+        <v>0.751</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45533.55208333334</v>
+        <v>45559.55208333334</v>
       </c>
       <c r="B54">
         <v>54</v>
       </c>
       <c r="C54">
-        <v>0.617</v>
+        <v>0.751</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45533.5625</v>
+        <v>45559.5625</v>
       </c>
       <c r="B55">
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0.598</v>
+        <v>0.751</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45533.57291666666</v>
+        <v>45559.57291666666</v>
       </c>
       <c r="B56">
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.592</v>
+        <v>0.752</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45533.58333333334</v>
+        <v>45559.58333333334</v>
       </c>
       <c r="B57">
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.587</v>
+        <v>0.738</v>
       </c>
       <c r="D57" t="s">
         <v>59</v>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45533.59375</v>
+        <v>45559.59375</v>
       </c>
       <c r="B58">
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.583</v>
+        <v>0.729</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45533.60416666666</v>
+        <v>45559.60416666666</v>
       </c>
       <c r="B59">
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.5620000000000001</v>
+        <v>0.714</v>
       </c>
       <c r="D59" t="s">
         <v>61</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45533.61458333334</v>
+        <v>45559.61458333334</v>
       </c>
       <c r="B60">
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.514</v>
+        <v>0.697</v>
       </c>
       <c r="D60" t="s">
         <v>62</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45533.625</v>
+        <v>45559.625</v>
       </c>
       <c r="B61">
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.504</v>
+        <v>0.657</v>
       </c>
       <c r="D61" t="s">
         <v>63</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45533.63541666666</v>
+        <v>45559.63541666666</v>
       </c>
       <c r="B62">
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.476</v>
+        <v>0.629</v>
       </c>
       <c r="D62" t="s">
         <v>64</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45533.64583333334</v>
+        <v>45559.64583333334</v>
       </c>
       <c r="B63">
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.455</v>
+        <v>0.585</v>
       </c>
       <c r="D63" t="s">
         <v>65</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45533.65625</v>
+        <v>45559.65625</v>
       </c>
       <c r="B64">
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0.45</v>
+        <v>0.537</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45533.66666666666</v>
+        <v>45559.66666666666</v>
       </c>
       <c r="B65">
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.446</v>
+        <v>0.484</v>
       </c>
       <c r="D65" t="s">
         <v>67</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45533.67708333334</v>
+        <v>45559.67708333334</v>
       </c>
       <c r="B66">
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.426</v>
+        <v>0.457</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45533.6875</v>
+        <v>45559.6875</v>
       </c>
       <c r="B67">
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0.403</v>
+        <v>0.426</v>
       </c>
       <c r="D67" t="s">
         <v>69</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45533.69791666666</v>
+        <v>45559.69791666666</v>
       </c>
       <c r="B68">
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0.337</v>
+        <v>0.381</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45533.70833333334</v>
+        <v>45559.70833333334</v>
       </c>
       <c r="B69">
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0.282</v>
+        <v>0.306</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45533.71875</v>
+        <v>45559.71875</v>
       </c>
       <c r="B70">
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0.247</v>
+        <v>0.271</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45533.72916666666</v>
+        <v>45559.72916666666</v>
       </c>
       <c r="B71">
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0.213</v>
+        <v>0.232</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45533.73958333334</v>
+        <v>45559.73958333334</v>
       </c>
       <c r="B72">
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.174</v>
+        <v>0.185</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45533.75</v>
+        <v>45559.75</v>
       </c>
       <c r="B73">
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0.143</v>
+        <v>0.153</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45533.76041666666</v>
+        <v>45559.76041666666</v>
       </c>
       <c r="B74">
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0.118</v>
+        <v>0.125</v>
       </c>
       <c r="D74" t="s">
         <v>76</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45533.77083333334</v>
+        <v>45559.77083333334</v>
       </c>
       <c r="B75">
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.08799999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="D75" t="s">
         <v>77</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45533.78125</v>
+        <v>45559.78125</v>
       </c>
       <c r="B76">
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0.068</v>
+        <v>0.065</v>
       </c>
       <c r="D76" t="s">
         <v>78</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45533.79166666666</v>
+        <v>45559.79166666666</v>
       </c>
       <c r="B77">
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0.058</v>
+        <v>0.05</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45533.80208333334</v>
+        <v>45559.80208333334</v>
       </c>
       <c r="B78">
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45533.8125</v>
+        <v>45559.8125</v>
       </c>
       <c r="B79">
         <v>79</v>
       </c>
       <c r="C79">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45533.82291666666</v>
+        <v>45559.82291666666</v>
       </c>
       <c r="B80">
         <v>80</v>
       </c>
       <c r="C80">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
         <v>82</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45533.83333333334</v>
+        <v>45559.83333333334</v>
       </c>
       <c r="B81">
         <v>81</v>
       </c>
       <c r="C81">
-        <v>0.021</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
         <v>83</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45533.84375</v>
+        <v>45559.84375</v>
       </c>
       <c r="B82">
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="D82" t="s">
         <v>84</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45533.85416666666</v>
+        <v>45559.85416666666</v>
       </c>
       <c r="B83">
         <v>83</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45533.86458333334</v>
+        <v>45559.86458333334</v>
       </c>
       <c r="B84">
         <v>84</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45533.875</v>
+        <v>45559.875</v>
       </c>
       <c r="B85">
         <v>85</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45533.88541666666</v>
+        <v>45559.88541666666</v>
       </c>
       <c r="B86">
         <v>86</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45533.89583333334</v>
+        <v>45559.89583333334</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45533.90625</v>
+        <v>45559.90625</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45533.91666666666</v>
+        <v>45559.91666666666</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45533.92708333334</v>
+        <v>45559.92708333334</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45533.9375</v>
+        <v>45559.9375</v>
       </c>
       <c r="B91">
         <v>91</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45533.94791666666</v>
+        <v>45559.94791666666</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45533.95833333334</v>
+        <v>45559.95833333334</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45533.96875</v>
+        <v>45559.96875</v>
       </c>
       <c r="B94">
         <v>94</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45533.97916666666</v>
+        <v>45559.97916666666</v>
       </c>
       <c r="B95">
         <v>95</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45533.98958333334</v>
+        <v>45559.98958333334</v>
       </c>
       <c r="B96">
         <v>96</v>

--- a/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
+++ b/Astro/Results_Production_Astro_xgb_intraday_15min.xlsx
@@ -28,289 +28,289 @@
     <t>Lookup</t>
   </si>
   <si>
-    <t>24.09.20241</t>
-  </si>
-  <si>
-    <t>24.09.20242</t>
-  </si>
-  <si>
-    <t>24.09.20243</t>
-  </si>
-  <si>
-    <t>24.09.20244</t>
-  </si>
-  <si>
-    <t>24.09.20245</t>
-  </si>
-  <si>
-    <t>24.09.20246</t>
-  </si>
-  <si>
-    <t>24.09.20247</t>
-  </si>
-  <si>
-    <t>24.09.20248</t>
-  </si>
-  <si>
-    <t>24.09.20249</t>
-  </si>
-  <si>
-    <t>24.09.202410</t>
-  </si>
-  <si>
-    <t>24.09.202411</t>
-  </si>
-  <si>
-    <t>24.09.202412</t>
-  </si>
-  <si>
-    <t>24.09.202414</t>
-  </si>
-  <si>
-    <t>24.09.202415</t>
-  </si>
-  <si>
-    <t>24.09.202416</t>
-  </si>
-  <si>
-    <t>24.09.202417</t>
-  </si>
-  <si>
-    <t>24.09.202418</t>
-  </si>
-  <si>
-    <t>24.09.202419</t>
-  </si>
-  <si>
-    <t>24.09.202420</t>
-  </si>
-  <si>
-    <t>24.09.202421</t>
-  </si>
-  <si>
-    <t>24.09.202422</t>
-  </si>
-  <si>
-    <t>24.09.202423</t>
-  </si>
-  <si>
-    <t>24.09.202424</t>
-  </si>
-  <si>
-    <t>24.09.202425</t>
-  </si>
-  <si>
-    <t>24.09.202426</t>
-  </si>
-  <si>
-    <t>24.09.202427</t>
-  </si>
-  <si>
-    <t>24.09.202428</t>
-  </si>
-  <si>
-    <t>24.09.202429</t>
-  </si>
-  <si>
-    <t>24.09.202430</t>
-  </si>
-  <si>
-    <t>24.09.202431</t>
-  </si>
-  <si>
-    <t>24.09.202432</t>
-  </si>
-  <si>
-    <t>24.09.202433</t>
-  </si>
-  <si>
-    <t>24.09.202434</t>
-  </si>
-  <si>
-    <t>24.09.202435</t>
-  </si>
-  <si>
-    <t>24.09.202436</t>
-  </si>
-  <si>
-    <t>24.09.202437</t>
-  </si>
-  <si>
-    <t>24.09.202438</t>
-  </si>
-  <si>
-    <t>24.09.202439</t>
-  </si>
-  <si>
-    <t>24.09.202440</t>
-  </si>
-  <si>
-    <t>24.09.202441</t>
-  </si>
-  <si>
-    <t>24.09.202442</t>
-  </si>
-  <si>
-    <t>24.09.202443</t>
-  </si>
-  <si>
-    <t>24.09.202444</t>
-  </si>
-  <si>
-    <t>24.09.202445</t>
-  </si>
-  <si>
-    <t>24.09.202446</t>
-  </si>
-  <si>
-    <t>24.09.202447</t>
-  </si>
-  <si>
-    <t>24.09.202448</t>
-  </si>
-  <si>
-    <t>24.09.202449</t>
-  </si>
-  <si>
-    <t>24.09.202450</t>
-  </si>
-  <si>
-    <t>24.09.202451</t>
-  </si>
-  <si>
-    <t>24.09.202452</t>
-  </si>
-  <si>
-    <t>24.09.202453</t>
-  </si>
-  <si>
-    <t>24.09.202454</t>
-  </si>
-  <si>
-    <t>24.09.202455</t>
-  </si>
-  <si>
-    <t>24.09.202456</t>
-  </si>
-  <si>
-    <t>24.09.202457</t>
-  </si>
-  <si>
-    <t>24.09.202458</t>
-  </si>
-  <si>
-    <t>24.09.202459</t>
-  </si>
-  <si>
-    <t>24.09.202460</t>
-  </si>
-  <si>
-    <t>24.09.202461</t>
-  </si>
-  <si>
-    <t>24.09.202462</t>
-  </si>
-  <si>
-    <t>24.09.202463</t>
-  </si>
-  <si>
-    <t>24.09.202464</t>
-  </si>
-  <si>
-    <t>24.09.202465</t>
-  </si>
-  <si>
-    <t>24.09.202466</t>
-  </si>
-  <si>
-    <t>24.09.202467</t>
-  </si>
-  <si>
-    <t>24.09.202468</t>
-  </si>
-  <si>
-    <t>24.09.202469</t>
-  </si>
-  <si>
-    <t>24.09.202470</t>
-  </si>
-  <si>
-    <t>24.09.202471</t>
-  </si>
-  <si>
-    <t>24.09.202472</t>
-  </si>
-  <si>
-    <t>24.09.202473</t>
-  </si>
-  <si>
-    <t>24.09.202474</t>
-  </si>
-  <si>
-    <t>24.09.202475</t>
-  </si>
-  <si>
-    <t>24.09.202476</t>
-  </si>
-  <si>
-    <t>24.09.202477</t>
-  </si>
-  <si>
-    <t>24.09.202478</t>
-  </si>
-  <si>
-    <t>24.09.202479</t>
-  </si>
-  <si>
-    <t>24.09.202480</t>
-  </si>
-  <si>
-    <t>24.09.202481</t>
-  </si>
-  <si>
-    <t>24.09.202482</t>
-  </si>
-  <si>
-    <t>24.09.202483</t>
-  </si>
-  <si>
-    <t>24.09.202484</t>
-  </si>
-  <si>
-    <t>24.09.202485</t>
-  </si>
-  <si>
-    <t>24.09.202486</t>
-  </si>
-  <si>
-    <t>24.09.202487</t>
-  </si>
-  <si>
-    <t>24.09.202488</t>
-  </si>
-  <si>
-    <t>24.09.202489</t>
-  </si>
-  <si>
-    <t>24.09.202490</t>
-  </si>
-  <si>
-    <t>24.09.202491</t>
-  </si>
-  <si>
-    <t>24.09.202492</t>
-  </si>
-  <si>
-    <t>24.09.202493</t>
-  </si>
-  <si>
-    <t>24.09.202494</t>
-  </si>
-  <si>
-    <t>24.09.202495</t>
-  </si>
-  <si>
-    <t>24.09.202496</t>
+    <t>29.08.20241</t>
+  </si>
+  <si>
+    <t>29.08.20242</t>
+  </si>
+  <si>
+    <t>29.08.20243</t>
+  </si>
+  <si>
+    <t>29.08.20244</t>
+  </si>
+  <si>
+    <t>29.08.20245</t>
+  </si>
+  <si>
+    <t>29.08.20246</t>
+  </si>
+  <si>
+    <t>29.08.20247</t>
+  </si>
+  <si>
+    <t>29.08.20248</t>
+  </si>
+  <si>
+    <t>29.08.20249</t>
+  </si>
+  <si>
+    <t>29.08.202410</t>
+  </si>
+  <si>
+    <t>29.08.202411</t>
+  </si>
+  <si>
+    <t>29.08.202412</t>
+  </si>
+  <si>
+    <t>29.08.202414</t>
+  </si>
+  <si>
+    <t>29.08.202415</t>
+  </si>
+  <si>
+    <t>29.08.202416</t>
+  </si>
+  <si>
+    <t>29.08.202417</t>
+  </si>
+  <si>
+    <t>29.08.202418</t>
+  </si>
+  <si>
+    <t>29.08.202419</t>
+  </si>
+  <si>
+    <t>29.08.202420</t>
+  </si>
+  <si>
+    <t>29.08.202421</t>
+  </si>
+  <si>
+    <t>29.08.202422</t>
+  </si>
+  <si>
+    <t>29.08.202423</t>
+  </si>
+  <si>
+    <t>29.08.202424</t>
+  </si>
+  <si>
+    <t>29.08.202425</t>
+  </si>
+  <si>
+    <t>29.08.202426</t>
+  </si>
+  <si>
+    <t>29.08.202427</t>
+  </si>
+  <si>
+    <t>29.08.202428</t>
+  </si>
+  <si>
+    <t>29.08.202429</t>
+  </si>
+  <si>
+    <t>29.08.202430</t>
+  </si>
+  <si>
+    <t>29.08.202431</t>
+  </si>
+  <si>
+    <t>29.08.202432</t>
+  </si>
+  <si>
+    <t>29.08.202433</t>
+  </si>
+  <si>
+    <t>29.08.202434</t>
+  </si>
+  <si>
+    <t>29.08.202435</t>
+  </si>
+  <si>
+    <t>29.08.202436</t>
+  </si>
+  <si>
+    <t>29.08.202437</t>
+  </si>
+  <si>
+    <t>29.08.202438</t>
+  </si>
+  <si>
+    <t>29.08.202439</t>
+  </si>
+  <si>
+    <t>29.08.202440</t>
+  </si>
+  <si>
+    <t>29.08.202441</t>
+  </si>
+  <si>
+    <t>29.08.202442</t>
+  </si>
+  <si>
+    <t>29.08.202443</t>
+  </si>
+  <si>
+    <t>29.08.202444</t>
+  </si>
+  <si>
+    <t>29.08.202445</t>
+  </si>
+  <si>
+    <t>29.08.202446</t>
+  </si>
+  <si>
+    <t>29.08.202447</t>
+  </si>
+  <si>
+    <t>29.08.202448</t>
+  </si>
+  <si>
+    <t>29.08.202449</t>
+  </si>
+  <si>
+    <t>29.08.202450</t>
+  </si>
+  <si>
+    <t>29.08.202451</t>
+  </si>
+  <si>
+    <t>29.08.202452</t>
+  </si>
+  <si>
+    <t>29.08.202453</t>
+  </si>
+  <si>
+    <t>29.08.202454</t>
+  </si>
+  <si>
+    <t>29.08.202455</t>
+  </si>
+  <si>
+    <t>29.08.202456</t>
+  </si>
+  <si>
+    <t>29.08.202457</t>
+  </si>
+  <si>
+    <t>29.08.202458</t>
+  </si>
+  <si>
+    <t>29.08.202459</t>
+  </si>
+  <si>
+    <t>29.08.202460</t>
+  </si>
+  <si>
+    <t>29.08.202461</t>
+  </si>
+  <si>
+    <t>29.08.202462</t>
+  </si>
+  <si>
+    <t>29.08.202463</t>
+  </si>
+  <si>
+    <t>29.08.202464</t>
+  </si>
+  <si>
+    <t>29.08.202465</t>
+  </si>
+  <si>
+    <t>29.08.202466</t>
+  </si>
+  <si>
+    <t>29.08.202467</t>
+  </si>
+  <si>
+    <t>29.08.202468</t>
+  </si>
+  <si>
+    <t>29.08.202469</t>
+  </si>
+  <si>
+    <t>29.08.202470</t>
+  </si>
+  <si>
+    <t>29.08.202471</t>
+  </si>
+  <si>
+    <t>29.08.202472</t>
+  </si>
+  <si>
+    <t>29.08.202473</t>
+  </si>
+  <si>
+    <t>29.08.202474</t>
+  </si>
+  <si>
+    <t>29.08.202475</t>
+  </si>
+  <si>
+    <t>29.08.202476</t>
+  </si>
+  <si>
+    <t>29.08.202477</t>
+  </si>
+  <si>
+    <t>29.08.202478</t>
+  </si>
+  <si>
+    <t>29.08.202479</t>
+  </si>
+  <si>
+    <t>29.08.202480</t>
+  </si>
+  <si>
+    <t>29.08.202481</t>
+  </si>
+  <si>
+    <t>29.08.202482</t>
+  </si>
+  <si>
+    <t>29.08.202483</t>
+  </si>
+  <si>
+    <t>29.08.202484</t>
+  </si>
+  <si>
+    <t>29.08.202485</t>
+  </si>
+  <si>
+    <t>29.08.202486</t>
+  </si>
+  <si>
+    <t>29.08.202487</t>
+  </si>
+  <si>
+    <t>29.08.202488</t>
+  </si>
+  <si>
+    <t>29.08.202489</t>
+  </si>
+  <si>
+    <t>29.08.202490</t>
+  </si>
+  <si>
+    <t>29.08.202491</t>
+  </si>
+  <si>
+    <t>29.08.202492</t>
+  </si>
+  <si>
+    <t>29.08.202493</t>
+  </si>
+  <si>
+    <t>29.08.202494</t>
+  </si>
+  <si>
+    <t>29.08.202495</t>
+  </si>
+  <si>
+    <t>29.08.202496</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>45559</v>
+        <v>45533</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>45559.01041666666</v>
+        <v>45533.01041666666</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>45559.02083333334</v>
+        <v>45533.02083333334</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>45559.03125</v>
+        <v>45533.03125</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>45559.04166666666</v>
+        <v>45533.04166666666</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>45559.05208333334</v>
+        <v>45533.05208333334</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -778,7 +778,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>45559.0625</v>
+        <v>45533.0625</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>45559.07291666666</v>
+        <v>45533.07291666666</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -806,7 +806,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>45559.08333333334</v>
+        <v>45533.08333333334</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -820,7 +820,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>45559.09375</v>
+        <v>45533.09375</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>45559.10416666666</v>
+        <v>45533.10416666666</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>45559.11458333334</v>
+        <v>45533.11458333334</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -862,7 +862,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>45559.13541666666</v>
+        <v>45533.13541666666</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>45559.14583333334</v>
+        <v>45533.14583333334</v>
       </c>
       <c r="B15">
         <v>15</v>
@@ -890,7 +890,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>45559.15625</v>
+        <v>45533.15625</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>45559.16666666666</v>
+        <v>45533.16666666666</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>45559.17708333334</v>
+        <v>45533.17708333334</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>45559.1875</v>
+        <v>45533.1875</v>
       </c>
       <c r="B19">
         <v>19</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>45559.19791666666</v>
+        <v>45533.19791666666</v>
       </c>
       <c r="B20">
         <v>20</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>45559.20833333334</v>
+        <v>45533.20833333334</v>
       </c>
       <c r="B21">
         <v>21</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>45559.21875</v>
+        <v>45533.21875</v>
       </c>
       <c r="B22">
         <v>22</v>
@@ -988,7 +988,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>45559.22916666666</v>
+        <v>45533.22916666666</v>
       </c>
       <c r="B23">
         <v>23</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>45559.23958333334</v>
+        <v>45533.23958333334</v>
       </c>
       <c r="B24">
         <v>24</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>45559.25</v>
+        <v>45533.25</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>45559.26041666666</v>
+        <v>45533.26041666666</v>
       </c>
       <c r="B26">
         <v>26</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>45559.27083333334</v>
+        <v>45533.27083333334</v>
       </c>
       <c r="B27">
         <v>27</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>45559.28125</v>
+        <v>45533.28125</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>45559.29166666666</v>
+        <v>45533.29166666666</v>
       </c>
       <c r="B29">
         <v>29</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>45559.30208333334</v>
+        <v>45533.30208333334</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -1100,13 +1100,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>45559.3125</v>
+        <v>45533.3125</v>
       </c>
       <c r="B31">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>45559.32291666666</v>
+        <v>45533.32291666666</v>
       </c>
       <c r="B32">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.022</v>
+        <v>0.015</v>
       </c>
       <c r="D32" t="s">
         <v>34</v>
@@ -1128,13 +1128,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>45559.33333333334</v>
+        <v>45533.33333333334</v>
       </c>
       <c r="B33">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.059</v>
+        <v>0.028</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1142,13 +1142,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>45559.34375</v>
+        <v>45533.34375</v>
       </c>
       <c r="B34">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.104</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="D34" t="s">
         <v>36</v>
@@ -1156,13 +1156,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>45559.35416666666</v>
+        <v>45533.35416666666</v>
       </c>
       <c r="B35">
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.156</v>
+        <v>0.137</v>
       </c>
       <c r="D35" t="s">
         <v>37</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>45559.36458333334</v>
+        <v>45533.36458333334</v>
       </c>
       <c r="B36">
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.212</v>
+        <v>0.204</v>
       </c>
       <c r="D36" t="s">
         <v>38</v>
@@ -1184,13 +1184,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>45559.375</v>
+        <v>45533.375</v>
       </c>
       <c r="B37">
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.267</v>
+        <v>0.26</v>
       </c>
       <c r="D37" t="s">
         <v>39</v>
@@ -1198,13 +1198,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>45559.38541666666</v>
+        <v>45533.38541666666</v>
       </c>
       <c r="B38">
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.322</v>
+        <v>0.297</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>45559.39583333334</v>
+        <v>45533.39583333334</v>
       </c>
       <c r="B39">
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.374</v>
+        <v>0.354</v>
       </c>
       <c r="D39" t="s">
         <v>41</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>45559.40625</v>
+        <v>45533.40625</v>
       </c>
       <c r="B40">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.424</v>
+        <v>0.397</v>
       </c>
       <c r="D40" t="s">
         <v>42</v>
@@ -1240,13 +1240,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>45559.41666666666</v>
+        <v>45533.41666666666</v>
       </c>
       <c r="B41">
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.47</v>
+        <v>0.378</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -1254,13 +1254,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>45559.42708333334</v>
+        <v>45533.42708333334</v>
       </c>
       <c r="B42">
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.511</v>
+        <v>0.45</v>
       </c>
       <c r="D42" t="s">
         <v>44</v>
@@ -1268,13 +1268,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>45559.4375</v>
+        <v>45533.4375</v>
       </c>
       <c r="B43">
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.548</v>
+        <v>0.492</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -1282,13 +1282,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>45559.44791666666</v>
+        <v>45533.44791666666</v>
       </c>
       <c r="B44">
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.582</v>
+        <v>0.515</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1296,13 +1296,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>45559.45833333334</v>
+        <v>45533.45833333334</v>
       </c>
       <c r="B45">
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.612</v>
+        <v>0.529</v>
       </c>
       <c r="D45" t="s">
         <v>47</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>45559.46875</v>
+        <v>45533.46875</v>
       </c>
       <c r="B46">
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.638</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -1324,13 +1324,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>45559.47916666666</v>
+        <v>45533.47916666666</v>
       </c>
       <c r="B47">
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.663</v>
+        <v>0.594</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -1338,13 +1338,13 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>45559.48958333334</v>
+        <v>45533.48958333334</v>
       </c>
       <c r="B48">
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.6840000000000001</v>
+        <v>0.613</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>45559.5</v>
+        <v>45533.5</v>
       </c>
       <c r="B49">
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.705</v>
+        <v>0.627</v>
       </c>
       <c r="D49" t="s">
         <v>51</v>
@@ -1366,13 +1366,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>45559.51041666666</v>
+        <v>45533.51041666666</v>
       </c>
       <c r="B50">
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.726</v>
+        <v>0.629</v>
       </c>
       <c r="D50" t="s">
         <v>52</v>
@@ -1380,13 +1380,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>45559.52083333334</v>
+        <v>45533.52083333334</v>
       </c>
       <c r="B51">
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.739</v>
+        <v>0.629</v>
       </c>
       <c r="D51" t="s">
         <v>53</v>
@@ -1394,13 +1394,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>45559.53125</v>
+        <v>45533.53125</v>
       </c>
       <c r="B52">
         <v>52</v>
       </c>
       <c r="C52">
-        <v>0.747</v>
+        <v>0.629</v>
       </c>
       <c r="D52" t="s">
         <v>54</v>
@@ -1408,13 +1408,13 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>45559.54166666666</v>
+        <v>45533.54166666666</v>
       </c>
       <c r="B53">
         <v>53</v>
       </c>
       <c r="C53">
-        <v>0.751</v>
+        <v>0.623</v>
       </c>
       <c r="D53" t="s">
         <v>55</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>45559.55208333334</v>
+        <v>45533.55208333334</v>
       </c>
       <c r="B54">
         <v>54</v>
       </c>
       <c r="C54">
-        <v>0.751</v>
+        <v>0.617</v>
       </c>
       <c r="D54" t="s">
         <v>56</v>
@@ -1436,13 +1436,13 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>45559.5625</v>
+        <v>45533.5625</v>
       </c>
       <c r="B55">
         <v>55</v>
       </c>
       <c r="C55">
-        <v>0.751</v>
+        <v>0.598</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -1450,13 +1450,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>45559.57291666666</v>
+        <v>45533.57291666666</v>
       </c>
       <c r="B56">
         <v>56</v>
       </c>
       <c r="C56">
-        <v>0.752</v>
+        <v>0.592</v>
       </c>
       <c r="D56" t="s">
         <v>58</v>
@@ -1464,13 +1464,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>45559.58333333334</v>
+        <v>45533.58333333334</v>
       </c>
       <c r="B57">
         <v>57</v>
       </c>
       <c r="C57">
-        <v>0.738</v>
+        <v>0.587</v>
       </c>
       <c r="D57" t="s">
         <v>59</v>
@@ -1478,13 +1478,13 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>45559.59375</v>
+        <v>45533.59375</v>
       </c>
       <c r="B58">
         <v>58</v>
       </c>
       <c r="C58">
-        <v>0.729</v>
+        <v>0.583</v>
       </c>
       <c r="D58" t="s">
         <v>60</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>45559.60416666666</v>
+        <v>45533.60416666666</v>
       </c>
       <c r="B59">
         <v>59</v>
       </c>
       <c r="C59">
-        <v>0.714</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D59" t="s">
         <v>61</v>
@@ -1506,13 +1506,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>45559.61458333334</v>
+        <v>45533.61458333334</v>
       </c>
       <c r="B60">
         <v>60</v>
       </c>
       <c r="C60">
-        <v>0.697</v>
+        <v>0.514</v>
       </c>
       <c r="D60" t="s">
         <v>62</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>45559.625</v>
+        <v>45533.625</v>
       </c>
       <c r="B61">
         <v>61</v>
       </c>
       <c r="C61">
-        <v>0.657</v>
+        <v>0.504</v>
       </c>
       <c r="D61" t="s">
         <v>63</v>
@@ -1534,13 +1534,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>45559.63541666666</v>
+        <v>45533.63541666666</v>
       </c>
       <c r="B62">
         <v>62</v>
       </c>
       <c r="C62">
-        <v>0.629</v>
+        <v>0.476</v>
       </c>
       <c r="D62" t="s">
         <v>64</v>
@@ -1548,13 +1548,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>45559.64583333334</v>
+        <v>45533.64583333334</v>
       </c>
       <c r="B63">
         <v>63</v>
       </c>
       <c r="C63">
-        <v>0.585</v>
+        <v>0.455</v>
       </c>
       <c r="D63" t="s">
         <v>65</v>
@@ -1562,13 +1562,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>45559.65625</v>
+        <v>45533.65625</v>
       </c>
       <c r="B64">
         <v>64</v>
       </c>
       <c r="C64">
-        <v>0.537</v>
+        <v>0.45</v>
       </c>
       <c r="D64" t="s">
         <v>66</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>45559.66666666666</v>
+        <v>45533.66666666666</v>
       </c>
       <c r="B65">
         <v>65</v>
       </c>
       <c r="C65">
-        <v>0.484</v>
+        <v>0.446</v>
       </c>
       <c r="D65" t="s">
         <v>67</v>
@@ -1590,13 +1590,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>45559.67708333334</v>
+        <v>45533.67708333334</v>
       </c>
       <c r="B66">
         <v>66</v>
       </c>
       <c r="C66">
-        <v>0.457</v>
+        <v>0.426</v>
       </c>
       <c r="D66" t="s">
         <v>68</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>45559.6875</v>
+        <v>45533.6875</v>
       </c>
       <c r="B67">
         <v>67</v>
       </c>
       <c r="C67">
-        <v>0.426</v>
+        <v>0.403</v>
       </c>
       <c r="D67" t="s">
         <v>69</v>
@@ -1618,13 +1618,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>45559.69791666666</v>
+        <v>45533.69791666666</v>
       </c>
       <c r="B68">
         <v>68</v>
       </c>
       <c r="C68">
-        <v>0.381</v>
+        <v>0.337</v>
       </c>
       <c r="D68" t="s">
         <v>70</v>
@@ -1632,13 +1632,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>45559.70833333334</v>
+        <v>45533.70833333334</v>
       </c>
       <c r="B69">
         <v>69</v>
       </c>
       <c r="C69">
-        <v>0.306</v>
+        <v>0.282</v>
       </c>
       <c r="D69" t="s">
         <v>71</v>
@@ -1646,13 +1646,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>45559.71875</v>
+        <v>45533.71875</v>
       </c>
       <c r="B70">
         <v>70</v>
       </c>
       <c r="C70">
-        <v>0.271</v>
+        <v>0.247</v>
       </c>
       <c r="D70" t="s">
         <v>72</v>
@@ -1660,13 +1660,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>45559.72916666666</v>
+        <v>45533.72916666666</v>
       </c>
       <c r="B71">
         <v>71</v>
       </c>
       <c r="C71">
-        <v>0.232</v>
+        <v>0.213</v>
       </c>
       <c r="D71" t="s">
         <v>73</v>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>45559.73958333334</v>
+        <v>45533.73958333334</v>
       </c>
       <c r="B72">
         <v>72</v>
       </c>
       <c r="C72">
-        <v>0.185</v>
+        <v>0.174</v>
       </c>
       <c r="D72" t="s">
         <v>74</v>
@@ -1688,13 +1688,13 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>45559.75</v>
+        <v>45533.75</v>
       </c>
       <c r="B73">
         <v>73</v>
       </c>
       <c r="C73">
-        <v>0.153</v>
+        <v>0.143</v>
       </c>
       <c r="D73" t="s">
         <v>75</v>
@@ -1702,13 +1702,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>45559.76041666666</v>
+        <v>45533.76041666666</v>
       </c>
       <c r="B74">
         <v>74</v>
       </c>
       <c r="C74">
-        <v>0.125</v>
+        <v>0.118</v>
       </c>
       <c r="D74" t="s">
         <v>76</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>45559.77083333334</v>
+        <v>45533.77083333334</v>
       </c>
       <c r="B75">
         <v>75</v>
       </c>
       <c r="C75">
-        <v>0.091</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="D75" t="s">
         <v>77</v>
@@ -1730,13 +1730,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>45559.78125</v>
+        <v>45533.78125</v>
       </c>
       <c r="B76">
         <v>76</v>
       </c>
       <c r="C76">
-        <v>0.065</v>
+        <v>0.068</v>
       </c>
       <c r="D76" t="s">
         <v>78</v>
@@ -1744,13 +1744,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>45559.79166666666</v>
+        <v>45533.79166666666</v>
       </c>
       <c r="B77">
         <v>77</v>
       </c>
       <c r="C77">
-        <v>0.05</v>
+        <v>0.058</v>
       </c>
       <c r="D77" t="s">
         <v>79</v>
@@ -1758,13 +1758,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>45559.80208333334</v>
+        <v>45533.80208333334</v>
       </c>
       <c r="B78">
         <v>78</v>
       </c>
       <c r="C78">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="D78" t="s">
         <v>80</v>
@@ -1772,13 +1772,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>45559.8125</v>
+        <v>45533.8125</v>
       </c>
       <c r="B79">
         <v>79</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.039</v>
       </c>
       <c r="D79" t="s">
         <v>81</v>
@@ -1786,13 +1786,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>45559.82291666666</v>
+        <v>45533.82291666666</v>
       </c>
       <c r="B80">
         <v>80</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="D80" t="s">
         <v>82</v>
@@ -1800,13 +1800,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>45559.83333333334</v>
+        <v>45533.83333333334</v>
       </c>
       <c r="B81">
         <v>81</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="D81" t="s">
         <v>83</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>45559.84375</v>
+        <v>45533.84375</v>
       </c>
       <c r="B82">
         <v>82</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="D82" t="s">
         <v>84</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>45559.85416666666</v>
+        <v>45533.85416666666</v>
       </c>
       <c r="B83">
         <v>83</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>45559.86458333334</v>
+        <v>45533.86458333334</v>
       </c>
       <c r="B84">
         <v>84</v>
@@ -1856,7 +1856,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>45559.875</v>
+        <v>45533.875</v>
       </c>
       <c r="B85">
         <v>85</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>45559.88541666666</v>
+        <v>45533.88541666666</v>
       </c>
       <c r="B86">
         <v>86</v>
@@ -1884,7 +1884,7 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>45559.89583333334</v>
+        <v>45533.89583333334</v>
       </c>
       <c r="B87">
         <v>87</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>45559.90625</v>
+        <v>45533.90625</v>
       </c>
       <c r="B88">
         <v>88</v>
@@ -1912,7 +1912,7 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>45559.91666666666</v>
+        <v>45533.91666666666</v>
       </c>
       <c r="B89">
         <v>89</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>45559.92708333334</v>
+        <v>45533.92708333334</v>
       </c>
       <c r="B90">
         <v>90</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>45559.9375</v>
+        <v>45533.9375</v>
       </c>
       <c r="B91">
         <v>91</v>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>45559.94791666666</v>
+        <v>45533.94791666666</v>
       </c>
       <c r="B92">
         <v>92</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>45559.95833333334</v>
+        <v>45533.95833333334</v>
       </c>
       <c r="B93">
         <v>93</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>45559.96875</v>
+        <v>45533.96875</v>
       </c>
       <c r="B94">
         <v>94</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>45559.97916666666</v>
+        <v>45533.97916666666</v>
       </c>
       <c r="B95">
         <v>95</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>45559.98958333334</v>
+        <v>45533.98958333334</v>
       </c>
       <c r="B96">
         <v>96</v>
